--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="357">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,30 @@
     <t>['5', '41']</t>
   </si>
   <si>
+    <t>['2', '36', '45+1', '90+4']</t>
+  </si>
+  <si>
+    <t>['57', '60']</t>
+  </si>
+  <si>
+    <t>['9', '90']</t>
+  </si>
+  <si>
+    <t>['25', '34', '45', '57']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['4', '15', '20', '61']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['26', '31']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -761,9 +785,6 @@
   </si>
   <si>
     <t>['87']</t>
-  </si>
-  <si>
-    <t>['65']</t>
   </si>
   <si>
     <t>['2', '6', '47', '53']</t>
@@ -902,9 +923,6 @@
   </si>
   <si>
     <t>['25', '55']</t>
-  </si>
-  <si>
-    <t>['24']</t>
   </si>
   <si>
     <t>['35', '90']</t>
@@ -1052,6 +1070,21 @@
   </si>
   <si>
     <t>['16']</t>
+  </si>
+  <si>
+    <t>['42', '45', '90+3', '90+11']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['13', '70']</t>
+  </si>
+  <si>
+    <t>['17', '52', '68', '90']</t>
+  </si>
+  <si>
+    <t>['60', '72']</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK293"/>
+  <dimension ref="A1:BK304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1657,7 +1690,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1744,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT2">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1935,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT3">
         <v>0.9399999999999999</v>
@@ -2039,7 +2072,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2126,10 +2159,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT4">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2317,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT5">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2421,7 +2454,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2508,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT6">
         <v>1.65</v>
@@ -2699,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT7">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2803,7 +2836,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2890,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT8">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2994,7 +3027,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3081,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3275,7 +3308,7 @@
         <v>0.82</v>
       </c>
       <c r="AT10">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3463,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT11">
         <v>1.41</v>
@@ -3567,7 +3600,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3657,7 +3690,7 @@
         <v>1.35</v>
       </c>
       <c r="AT12">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3845,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT13">
         <v>0.88</v>
@@ -3949,7 +3982,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4227,10 +4260,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT15">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4421,7 +4454,7 @@
         <v>1.71</v>
       </c>
       <c r="AT16">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -5182,10 +5215,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT20">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU20">
         <v>1.11</v>
@@ -5373,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT21">
         <v>1.12</v>
@@ -5564,10 +5597,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT22">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU22">
         <v>1.15</v>
@@ -5755,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT23">
         <v>0.9399999999999999</v>
@@ -5946,10 +5979,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT24">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU24">
         <v>0.68</v>
@@ -6050,7 +6083,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6137,10 +6170,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT25">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU25">
         <v>1.34</v>
@@ -6241,7 +6274,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6331,7 +6364,7 @@
         <v>0.82</v>
       </c>
       <c r="AT26">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6519,10 +6552,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT27">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU27">
         <v>0.93</v>
@@ -6710,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT28">
         <v>0.59</v>
@@ -7196,7 +7229,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7283,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT31">
         <v>1.12</v>
@@ -7474,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT32">
         <v>1.65</v>
@@ -7578,7 +7611,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7665,10 +7698,10 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT33">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU33">
         <v>2.03</v>
@@ -7856,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT34">
         <v>0.9399999999999999</v>
@@ -7960,7 +7993,7 @@
         <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8050,7 +8083,7 @@
         <v>0.82</v>
       </c>
       <c r="AT35">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU35">
         <v>1.19</v>
@@ -8151,7 +8184,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8238,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT36">
         <v>1.41</v>
@@ -8429,10 +8462,10 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT37">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU37">
         <v>0.54</v>
@@ -8620,10 +8653,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT38">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU38">
         <v>1.66</v>
@@ -8811,10 +8844,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT39">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU39">
         <v>1.58</v>
@@ -9002,7 +9035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT40">
         <v>0.59</v>
@@ -9106,7 +9139,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9196,7 +9229,7 @@
         <v>1.53</v>
       </c>
       <c r="AT41">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU41">
         <v>1.19</v>
@@ -9384,10 +9417,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT42">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU42">
         <v>1.38</v>
@@ -9488,7 +9521,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9578,7 +9611,7 @@
         <v>1.24</v>
       </c>
       <c r="AT43">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU43">
         <v>1.83</v>
@@ -9679,7 +9712,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9769,7 +9802,7 @@
         <v>1.35</v>
       </c>
       <c r="AT44">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU44">
         <v>1.02</v>
@@ -9957,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT45">
         <v>0.44</v>
@@ -10061,7 +10094,7 @@
         <v>106</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10342,7 +10375,7 @@
         <v>1.71</v>
       </c>
       <c r="AT47">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU47">
         <v>1.74</v>
@@ -10634,7 +10667,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10724,7 +10757,7 @@
         <v>1.24</v>
       </c>
       <c r="AT49">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU49">
         <v>1.38</v>
@@ -10825,7 +10858,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11106,7 +11139,7 @@
         <v>1.06</v>
       </c>
       <c r="AT51">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU51">
         <v>1.39</v>
@@ -11294,7 +11327,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT52">
         <v>1.65</v>
@@ -11398,7 +11431,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11676,10 +11709,10 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT54">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU54">
         <v>0.89</v>
@@ -11867,10 +11900,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT55">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11971,7 +12004,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12061,7 +12094,7 @@
         <v>1.24</v>
       </c>
       <c r="AT56">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU56">
         <v>1.51</v>
@@ -12162,7 +12195,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12443,7 +12476,7 @@
         <v>0.82</v>
       </c>
       <c r="AT58">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU58">
         <v>0.97</v>
@@ -12631,7 +12664,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT59">
         <v>0.9399999999999999</v>
@@ -12735,7 +12768,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12822,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT60">
         <v>1.12</v>
@@ -12926,7 +12959,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -13013,7 +13046,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT61">
         <v>1.65</v>
@@ -13204,7 +13237,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT62">
         <v>1.41</v>
@@ -13395,10 +13428,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT63">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU63">
         <v>1.77</v>
@@ -13586,10 +13619,10 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT64">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU64">
         <v>1.49</v>
@@ -13780,7 +13813,7 @@
         <v>1.35</v>
       </c>
       <c r="AT65">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU65">
         <v>1.7</v>
@@ -13881,7 +13914,7 @@
         <v>83</v>
       </c>
       <c r="P66" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13971,7 +14004,7 @@
         <v>1.06</v>
       </c>
       <c r="AT66">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU66">
         <v>1.23</v>
@@ -14162,7 +14195,7 @@
         <v>1.71</v>
       </c>
       <c r="AT67">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU67">
         <v>1.47</v>
@@ -14350,7 +14383,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT68">
         <v>0.88</v>
@@ -14454,7 +14487,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14541,7 +14574,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT69">
         <v>1.12</v>
@@ -14836,7 +14869,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14926,7 +14959,7 @@
         <v>1.53</v>
       </c>
       <c r="AT71">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU71">
         <v>1.02</v>
@@ -15114,7 +15147,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT72">
         <v>0.44</v>
@@ -15218,7 +15251,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15305,10 +15338,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT73">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU73">
         <v>1.74</v>
@@ -15496,10 +15529,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT74">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -15878,7 +15911,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT76">
         <v>1.12</v>
@@ -16173,7 +16206,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16260,7 +16293,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT78">
         <v>0.59</v>
@@ -16454,7 +16487,7 @@
         <v>1.71</v>
       </c>
       <c r="AT79">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU79">
         <v>1.41</v>
@@ -16555,7 +16588,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16642,7 +16675,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT80">
         <v>1.41</v>
@@ -16833,10 +16866,10 @@
         <v>2.5</v>
       </c>
       <c r="AS81">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT81">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU81">
         <v>1.58</v>
@@ -17024,10 +17057,10 @@
         <v>1.25</v>
       </c>
       <c r="AS82">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT82">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU82">
         <v>1.65</v>
@@ -17215,10 +17248,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT83">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -17406,10 +17439,10 @@
         <v>0.5</v>
       </c>
       <c r="AS84">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT84">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU84">
         <v>1.04</v>
@@ -17510,7 +17543,7 @@
         <v>132</v>
       </c>
       <c r="P85" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17600,7 +17633,7 @@
         <v>1.53</v>
       </c>
       <c r="AT85">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU85">
         <v>1.01</v>
@@ -17701,7 +17734,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17892,7 +17925,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17982,7 +18015,7 @@
         <v>1.35</v>
       </c>
       <c r="AT87">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU87">
         <v>1.71</v>
@@ -18083,7 +18116,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -18170,7 +18203,7 @@
         <v>0.6</v>
       </c>
       <c r="AS88">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT88">
         <v>0.88</v>
@@ -18274,7 +18307,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18361,7 +18394,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT89">
         <v>1.12</v>
@@ -18555,7 +18588,7 @@
         <v>1.06</v>
       </c>
       <c r="AT90">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU90">
         <v>1.33</v>
@@ -18656,7 +18689,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18743,10 +18776,10 @@
         <v>0.75</v>
       </c>
       <c r="AS91">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT91">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU91">
         <v>1.72</v>
@@ -18934,10 +18967,10 @@
         <v>2.2</v>
       </c>
       <c r="AS92">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT92">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU92">
         <v>1.39</v>
@@ -19038,7 +19071,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19229,7 +19262,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19316,7 +19349,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT94">
         <v>1.12</v>
@@ -19507,7 +19540,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT95">
         <v>1.65</v>
@@ -19611,7 +19644,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19701,7 +19734,7 @@
         <v>1.24</v>
       </c>
       <c r="AT96">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU96">
         <v>1.5</v>
@@ -19802,7 +19835,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19889,7 +19922,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT97">
         <v>0.44</v>
@@ -20080,7 +20113,7 @@
         <v>0.4</v>
       </c>
       <c r="AS98">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT98">
         <v>0.59</v>
@@ -20274,7 +20307,7 @@
         <v>1.71</v>
       </c>
       <c r="AT99">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU99">
         <v>1.26</v>
@@ -20465,7 +20498,7 @@
         <v>1.53</v>
       </c>
       <c r="AT100">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU100">
         <v>1.11</v>
@@ -20566,7 +20599,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20653,10 +20686,10 @@
         <v>2.6</v>
       </c>
       <c r="AS101">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT101">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU101">
         <v>0.99</v>
@@ -20844,10 +20877,10 @@
         <v>0.6</v>
       </c>
       <c r="AS102">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT102">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU102">
         <v>1.36</v>
@@ -21035,10 +21068,10 @@
         <v>1.6</v>
       </c>
       <c r="AS103">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT103">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU103">
         <v>1.68</v>
@@ -21139,7 +21172,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21229,7 +21262,7 @@
         <v>1.35</v>
       </c>
       <c r="AT104">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU104">
         <v>1.57</v>
@@ -21417,10 +21450,10 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT105">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU105">
         <v>1.64</v>
@@ -21608,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT106">
         <v>1.12</v>
@@ -21799,7 +21832,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT107">
         <v>0.88</v>
@@ -21903,7 +21936,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22094,7 +22127,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22184,7 +22217,7 @@
         <v>1.35</v>
       </c>
       <c r="AT109">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU109">
         <v>1.21</v>
@@ -22285,7 +22318,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22566,7 +22599,7 @@
         <v>1.06</v>
       </c>
       <c r="AT111">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU111">
         <v>1.41</v>
@@ -22945,10 +22978,10 @@
         <v>1.83</v>
       </c>
       <c r="AS113">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT113">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU113">
         <v>1.68</v>
@@ -23327,7 +23360,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT115">
         <v>1.41</v>
@@ -23518,7 +23551,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT116">
         <v>0.44</v>
@@ -23712,7 +23745,7 @@
         <v>1.53</v>
       </c>
       <c r="AT117">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU117">
         <v>1.09</v>
@@ -23813,7 +23846,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23900,10 +23933,10 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT118">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU118">
         <v>1.22</v>
@@ -24091,10 +24124,10 @@
         <v>0.67</v>
       </c>
       <c r="AS119">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT119">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU119">
         <v>1</v>
@@ -24386,7 +24419,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24473,10 +24506,10 @@
         <v>2.33</v>
       </c>
       <c r="AS121">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT121">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU121">
         <v>1.04</v>
@@ -24664,7 +24697,7 @@
         <v>1</v>
       </c>
       <c r="AS122">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT122">
         <v>0.88</v>
@@ -24768,7 +24801,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24855,10 +24888,10 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT123">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU123">
         <v>1.59</v>
@@ -25046,7 +25079,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT124">
         <v>0.9399999999999999</v>
@@ -25150,7 +25183,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25237,10 +25270,10 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT125">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU125">
         <v>1.61</v>
@@ -25341,7 +25374,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25431,7 +25464,7 @@
         <v>1.35</v>
       </c>
       <c r="AT126">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU126">
         <v>1.5</v>
@@ -25532,7 +25565,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25619,10 +25652,10 @@
         <v>2.67</v>
       </c>
       <c r="AS127">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT127">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25723,7 +25756,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25813,7 +25846,7 @@
         <v>0.82</v>
       </c>
       <c r="AT128">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU128">
         <v>0.98</v>
@@ -26192,7 +26225,7 @@
         <v>0.86</v>
       </c>
       <c r="AS130">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT130">
         <v>1.12</v>
@@ -26386,7 +26419,7 @@
         <v>1.35</v>
       </c>
       <c r="AT131">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU131">
         <v>1.5</v>
@@ -26574,7 +26607,7 @@
         <v>0.43</v>
       </c>
       <c r="AS132">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT132">
         <v>0.44</v>
@@ -26678,7 +26711,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26869,7 +26902,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26959,7 +26992,7 @@
         <v>1.24</v>
       </c>
       <c r="AT134">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU134">
         <v>1.39</v>
@@ -27060,7 +27093,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27338,7 +27371,7 @@
         <v>0.57</v>
       </c>
       <c r="AS136">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT136">
         <v>0.59</v>
@@ -27442,7 +27475,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27529,10 +27562,10 @@
         <v>0.5</v>
       </c>
       <c r="AS137">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT137">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU137">
         <v>1.4</v>
@@ -27633,7 +27666,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27720,10 +27753,10 @@
         <v>1</v>
       </c>
       <c r="AS138">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT138">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU138">
         <v>1.28</v>
@@ -27911,10 +27944,10 @@
         <v>1.29</v>
       </c>
       <c r="AS139">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT139">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU139">
         <v>1.64</v>
@@ -28015,7 +28048,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -28102,7 +28135,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT140">
         <v>0.9399999999999999</v>
@@ -28206,7 +28239,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28293,10 +28326,10 @@
         <v>1.43</v>
       </c>
       <c r="AS141">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT141">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU141">
         <v>1.11</v>
@@ -28397,7 +28430,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28484,10 +28517,10 @@
         <v>2.43</v>
       </c>
       <c r="AS142">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT142">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU142">
         <v>1.45</v>
@@ -28588,7 +28621,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28675,10 +28708,10 @@
         <v>1.17</v>
       </c>
       <c r="AS143">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT143">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU143">
         <v>1.83</v>
@@ -28779,7 +28812,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28866,10 +28899,10 @@
         <v>1.29</v>
       </c>
       <c r="AS144">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT144">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU144">
         <v>1.53</v>
@@ -28970,7 +29003,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -29161,7 +29194,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29352,7 +29385,7 @@
         <v>169</v>
       </c>
       <c r="P147" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29439,7 +29472,7 @@
         <v>0.88</v>
       </c>
       <c r="AS147">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT147">
         <v>1.12</v>
@@ -29824,7 +29857,7 @@
         <v>1.53</v>
       </c>
       <c r="AT149">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU149">
         <v>1.07</v>
@@ -30116,7 +30149,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30585,7 +30618,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT153">
         <v>0.88</v>
@@ -30689,7 +30722,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -30779,7 +30812,7 @@
         <v>1.24</v>
       </c>
       <c r="AT154">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU154">
         <v>1.45</v>
@@ -31161,7 +31194,7 @@
         <v>1.35</v>
       </c>
       <c r="AT156">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU156">
         <v>1.27</v>
@@ -31453,7 +31486,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31543,7 +31576,7 @@
         <v>1.06</v>
       </c>
       <c r="AT158">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU158">
         <v>1.31</v>
@@ -31922,7 +31955,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT160">
         <v>1.12</v>
@@ -32026,7 +32059,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -32113,10 +32146,10 @@
         <v>1.63</v>
       </c>
       <c r="AS161">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT161">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU161">
         <v>1.46</v>
@@ -32217,7 +32250,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32307,7 +32340,7 @@
         <v>0.82</v>
       </c>
       <c r="AT162">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU162">
         <v>1.15</v>
@@ -32495,10 +32528,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS163">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT163">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU163">
         <v>1.14</v>
@@ -32599,7 +32632,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -32686,10 +32719,10 @@
         <v>2.71</v>
       </c>
       <c r="AS164">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT164">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU164">
         <v>1.43</v>
@@ -32877,10 +32910,10 @@
         <v>1.25</v>
       </c>
       <c r="AS165">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT165">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU165">
         <v>1.3</v>
@@ -33068,7 +33101,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT166">
         <v>0.9399999999999999</v>
@@ -33259,10 +33292,10 @@
         <v>2.13</v>
       </c>
       <c r="AS167">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT167">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU167">
         <v>1.62</v>
@@ -33450,7 +33483,7 @@
         <v>1.56</v>
       </c>
       <c r="AS168">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT168">
         <v>1.65</v>
@@ -33745,7 +33778,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33936,7 +33969,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -34026,7 +34059,7 @@
         <v>1.35</v>
       </c>
       <c r="AT171">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU171">
         <v>1.32</v>
@@ -34318,7 +34351,7 @@
         <v>171</v>
       </c>
       <c r="P173" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34405,7 +34438,7 @@
         <v>1.2</v>
       </c>
       <c r="AS173">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT173">
         <v>1.41</v>
@@ -34596,10 +34629,10 @@
         <v>1.11</v>
       </c>
       <c r="AS174">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT174">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU174">
         <v>1.62</v>
@@ -34790,7 +34823,7 @@
         <v>1.53</v>
       </c>
       <c r="AT175">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU175">
         <v>1.09</v>
@@ -35169,10 +35202,10 @@
         <v>1.5</v>
       </c>
       <c r="AS177">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT177">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU177">
         <v>1.67</v>
@@ -35360,10 +35393,10 @@
         <v>1.14</v>
       </c>
       <c r="AS178">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT178">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU178">
         <v>0.95</v>
@@ -35464,7 +35497,7 @@
         <v>186</v>
       </c>
       <c r="P179" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35554,7 +35587,7 @@
         <v>0.82</v>
       </c>
       <c r="AT179">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU179">
         <v>1.2</v>
@@ -35742,10 +35775,10 @@
         <v>0.6</v>
       </c>
       <c r="AS180">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT180">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU180">
         <v>1.62</v>
@@ -35933,10 +35966,10 @@
         <v>1.5</v>
       </c>
       <c r="AS181">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT181">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU181">
         <v>1.67</v>
@@ -36124,7 +36157,7 @@
         <v>1.11</v>
       </c>
       <c r="AS182">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT182">
         <v>0.9399999999999999</v>
@@ -36228,7 +36261,7 @@
         <v>83</v>
       </c>
       <c r="P183" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -36315,10 +36348,10 @@
         <v>1.56</v>
       </c>
       <c r="AS183">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT183">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU183">
         <v>1.63</v>
@@ -36419,7 +36452,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36506,10 +36539,10 @@
         <v>2</v>
       </c>
       <c r="AS184">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT184">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU184">
         <v>1.35</v>
@@ -36610,7 +36643,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36697,7 +36730,7 @@
         <v>1.2</v>
       </c>
       <c r="AS185">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT185">
         <v>1.12</v>
@@ -36888,7 +36921,7 @@
         <v>1.5</v>
       </c>
       <c r="AS186">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT186">
         <v>1.65</v>
@@ -37082,7 +37115,7 @@
         <v>1.35</v>
       </c>
       <c r="AT187">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU187">
         <v>1.58</v>
@@ -37270,7 +37303,7 @@
         <v>0.36</v>
       </c>
       <c r="AS188">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT188">
         <v>0.59</v>
@@ -37374,7 +37407,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q189">
         <v>10</v>
@@ -37655,7 +37688,7 @@
         <v>1.24</v>
       </c>
       <c r="AT190">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU190">
         <v>1.43</v>
@@ -38034,10 +38067,10 @@
         <v>1.13</v>
       </c>
       <c r="AS192">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT192">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU192">
         <v>1.29</v>
@@ -38225,7 +38258,7 @@
         <v>1.36</v>
       </c>
       <c r="AS193">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT193">
         <v>1.12</v>
@@ -38329,7 +38362,7 @@
         <v>92</v>
       </c>
       <c r="P194" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38416,10 +38449,10 @@
         <v>1.7</v>
       </c>
       <c r="AS194">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT194">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU194">
         <v>1.36</v>
@@ -38711,7 +38744,7 @@
         <v>194</v>
       </c>
       <c r="P196" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q196">
         <v>11</v>
@@ -38798,10 +38831,10 @@
         <v>1.45</v>
       </c>
       <c r="AS196">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT196">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU196">
         <v>1.6</v>
@@ -38989,10 +39022,10 @@
         <v>1.1</v>
       </c>
       <c r="AS197">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT197">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU197">
         <v>1.6</v>
@@ -39180,7 +39213,7 @@
         <v>1.36</v>
       </c>
       <c r="AS198">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT198">
         <v>1.65</v>
@@ -39371,10 +39404,10 @@
         <v>2.1</v>
       </c>
       <c r="AS199">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT199">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU199">
         <v>1.64</v>
@@ -39475,7 +39508,7 @@
         <v>196</v>
       </c>
       <c r="P200" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39562,10 +39595,10 @@
         <v>1.11</v>
       </c>
       <c r="AS200">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT200">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU200">
         <v>1.37</v>
@@ -39753,7 +39786,7 @@
         <v>0.55</v>
       </c>
       <c r="AS201">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT201">
         <v>0.44</v>
@@ -39857,7 +39890,7 @@
         <v>198</v>
       </c>
       <c r="P202" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -39947,7 +39980,7 @@
         <v>1.06</v>
       </c>
       <c r="AT202">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU202">
         <v>1.45</v>
@@ -40135,7 +40168,7 @@
         <v>0.33</v>
       </c>
       <c r="AS203">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT203">
         <v>0.59</v>
@@ -40239,7 +40272,7 @@
         <v>199</v>
       </c>
       <c r="P204" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40326,10 +40359,10 @@
         <v>1.33</v>
       </c>
       <c r="AS204">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT204">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU204">
         <v>1.08</v>
@@ -40430,7 +40463,7 @@
         <v>200</v>
       </c>
       <c r="P205" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40520,7 +40553,7 @@
         <v>1.53</v>
       </c>
       <c r="AT205">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU205">
         <v>1.18</v>
@@ -40711,7 +40744,7 @@
         <v>0.82</v>
       </c>
       <c r="AT206">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU206">
         <v>1.24</v>
@@ -40902,7 +40935,7 @@
         <v>1.24</v>
       </c>
       <c r="AT207">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU207">
         <v>1.44</v>
@@ -41090,7 +41123,7 @@
         <v>1.36</v>
       </c>
       <c r="AS208">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT208">
         <v>1.41</v>
@@ -41281,7 +41314,7 @@
         <v>1.5</v>
       </c>
       <c r="AS209">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT209">
         <v>1.12</v>
@@ -41385,7 +41418,7 @@
         <v>83</v>
       </c>
       <c r="P210" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q210">
         <v>7</v>
@@ -41472,10 +41505,10 @@
         <v>1.33</v>
       </c>
       <c r="AS210">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT210">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU210">
         <v>1.02</v>
@@ -41576,7 +41609,7 @@
         <v>83</v>
       </c>
       <c r="P211" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41663,7 +41696,7 @@
         <v>1.33</v>
       </c>
       <c r="AS211">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT211">
         <v>1.65</v>
@@ -41854,7 +41887,7 @@
         <v>1.09</v>
       </c>
       <c r="AS212">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT212">
         <v>0.9399999999999999</v>
@@ -42045,10 +42078,10 @@
         <v>1.64</v>
       </c>
       <c r="AS213">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT213">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU213">
         <v>1.6</v>
@@ -42236,10 +42269,10 @@
         <v>0.55</v>
       </c>
       <c r="AS214">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT214">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU214">
         <v>1.37</v>
@@ -42340,7 +42373,7 @@
         <v>205</v>
       </c>
       <c r="P215" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42427,10 +42460,10 @@
         <v>1.23</v>
       </c>
       <c r="AS215">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT215">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU215">
         <v>1.51</v>
@@ -42531,7 +42564,7 @@
         <v>83</v>
       </c>
       <c r="P216" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42621,7 +42654,7 @@
         <v>1.06</v>
       </c>
       <c r="AT216">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU216">
         <v>1.47</v>
@@ -42809,10 +42842,10 @@
         <v>1</v>
       </c>
       <c r="AS217">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT217">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU217">
         <v>1.63</v>
@@ -43000,7 +43033,7 @@
         <v>1.17</v>
       </c>
       <c r="AS218">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT218">
         <v>0.88</v>
@@ -43191,7 +43224,7 @@
         <v>0.5</v>
       </c>
       <c r="AS219">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT219">
         <v>0.44</v>
@@ -43385,7 +43418,7 @@
         <v>1.53</v>
       </c>
       <c r="AT220">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU220">
         <v>1.19</v>
@@ -43576,7 +43609,7 @@
         <v>1.35</v>
       </c>
       <c r="AT221">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU221">
         <v>1.42</v>
@@ -43677,7 +43710,7 @@
         <v>210</v>
       </c>
       <c r="P222" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43764,7 +43797,7 @@
         <v>1.09</v>
       </c>
       <c r="AS222">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT222">
         <v>1.12</v>
@@ -43958,7 +43991,7 @@
         <v>1.35</v>
       </c>
       <c r="AT223">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU223">
         <v>1.51</v>
@@ -44146,7 +44179,7 @@
         <v>1.33</v>
       </c>
       <c r="AS224">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT224">
         <v>1.41</v>
@@ -44250,7 +44283,7 @@
         <v>83</v>
       </c>
       <c r="P225" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44340,7 +44373,7 @@
         <v>1.71</v>
       </c>
       <c r="AT225">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU225">
         <v>1.34</v>
@@ -44531,7 +44564,7 @@
         <v>1.35</v>
       </c>
       <c r="AT226">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU226">
         <v>1.34</v>
@@ -44719,10 +44752,10 @@
         <v>1.09</v>
       </c>
       <c r="AS227">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT227">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU227">
         <v>1.5</v>
@@ -44823,7 +44856,7 @@
         <v>83</v>
       </c>
       <c r="P228" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q228">
         <v>14</v>
@@ -44913,7 +44946,7 @@
         <v>1.24</v>
       </c>
       <c r="AT228">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU228">
         <v>1.42</v>
@@ -45014,7 +45047,7 @@
         <v>97</v>
       </c>
       <c r="P229" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45205,7 +45238,7 @@
         <v>212</v>
       </c>
       <c r="P230" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45292,7 +45325,7 @@
         <v>1.31</v>
       </c>
       <c r="AS230">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT230">
         <v>1.41</v>
@@ -45396,7 +45429,7 @@
         <v>213</v>
       </c>
       <c r="P231" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45483,7 +45516,7 @@
         <v>0.31</v>
       </c>
       <c r="AS231">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT231">
         <v>0.59</v>
@@ -45587,7 +45620,7 @@
         <v>214</v>
       </c>
       <c r="P232" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -45674,10 +45707,10 @@
         <v>0.5</v>
       </c>
       <c r="AS232">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT232">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU232">
         <v>1.07</v>
@@ -46056,7 +46089,7 @@
         <v>1.25</v>
       </c>
       <c r="AS234">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT234">
         <v>1.12</v>
@@ -46160,7 +46193,7 @@
         <v>216</v>
       </c>
       <c r="P235" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -46247,10 +46280,10 @@
         <v>1.46</v>
       </c>
       <c r="AS235">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT235">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU235">
         <v>1.27</v>
@@ -46441,7 +46474,7 @@
         <v>1.35</v>
       </c>
       <c r="AT236">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU236">
         <v>1.52</v>
@@ -46542,7 +46575,7 @@
         <v>133</v>
       </c>
       <c r="P237" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q237">
         <v>6</v>
@@ -46629,10 +46662,10 @@
         <v>1.08</v>
       </c>
       <c r="AS237">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT237">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU237">
         <v>1.61</v>
@@ -46820,10 +46853,10 @@
         <v>1.31</v>
       </c>
       <c r="AS238">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT238">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU238">
         <v>1.14</v>
@@ -46924,7 +46957,7 @@
         <v>83</v>
       </c>
       <c r="P239" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -47011,10 +47044,10 @@
         <v>1.21</v>
       </c>
       <c r="AS239">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT239">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU239">
         <v>1.07</v>
@@ -47205,7 +47238,7 @@
         <v>1.06</v>
       </c>
       <c r="AT240">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU240">
         <v>1.43</v>
@@ -47306,7 +47339,7 @@
         <v>218</v>
       </c>
       <c r="P241" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47584,7 +47617,7 @@
         <v>1.15</v>
       </c>
       <c r="AS242">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT242">
         <v>1.12</v>
@@ -47775,7 +47808,7 @@
         <v>1.08</v>
       </c>
       <c r="AS243">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT243">
         <v>0.88</v>
@@ -47966,7 +47999,7 @@
         <v>0.46</v>
       </c>
       <c r="AS244">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT244">
         <v>0.44</v>
@@ -48070,7 +48103,7 @@
         <v>83</v>
       </c>
       <c r="P245" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q245">
         <v>6</v>
@@ -48261,7 +48294,7 @@
         <v>108</v>
       </c>
       <c r="P246" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -48348,7 +48381,7 @@
         <v>1.21</v>
       </c>
       <c r="AS246">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT246">
         <v>1.41</v>
@@ -48542,7 +48575,7 @@
         <v>0.82</v>
       </c>
       <c r="AT247">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU247">
         <v>1.23</v>
@@ -48730,10 +48763,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS248">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT248">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU248">
         <v>1.64</v>
@@ -48834,7 +48867,7 @@
         <v>87</v>
       </c>
       <c r="P249" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q249">
         <v>5</v>
@@ -48921,7 +48954,7 @@
         <v>0.36</v>
       </c>
       <c r="AS249">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT249">
         <v>0.59</v>
@@ -49115,7 +49148,7 @@
         <v>1.53</v>
       </c>
       <c r="AT250">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU250">
         <v>1.22</v>
@@ -49303,7 +49336,7 @@
         <v>1.36</v>
       </c>
       <c r="AS251">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT251">
         <v>1.12</v>
@@ -49497,7 +49530,7 @@
         <v>1.71</v>
       </c>
       <c r="AT252">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU252">
         <v>1.44</v>
@@ -49685,7 +49718,7 @@
         <v>0.43</v>
       </c>
       <c r="AS253">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT253">
         <v>0.44</v>
@@ -49789,7 +49822,7 @@
         <v>83</v>
       </c>
       <c r="P254" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -49879,7 +49912,7 @@
         <v>1.35</v>
       </c>
       <c r="AT254">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU254">
         <v>1.32</v>
@@ -49980,7 +50013,7 @@
         <v>208</v>
       </c>
       <c r="P255" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50067,7 +50100,7 @@
         <v>1.57</v>
       </c>
       <c r="AS255">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT255">
         <v>1.65</v>
@@ -50258,10 +50291,10 @@
         <v>0.92</v>
       </c>
       <c r="AS256">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT256">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU256">
         <v>1.76</v>
@@ -50449,10 +50482,10 @@
         <v>0.71</v>
       </c>
       <c r="AS257">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT257">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU257">
         <v>1.61</v>
@@ -50640,10 +50673,10 @@
         <v>1.07</v>
       </c>
       <c r="AS258">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT258">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU258">
         <v>1.39</v>
@@ -50744,7 +50777,7 @@
         <v>227</v>
       </c>
       <c r="P259" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -50831,7 +50864,7 @@
         <v>1.07</v>
       </c>
       <c r="AS259">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT259">
         <v>1.12</v>
@@ -51022,7 +51055,7 @@
         <v>1</v>
       </c>
       <c r="AS260">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT260">
         <v>0.88</v>
@@ -51213,10 +51246,10 @@
         <v>0.86</v>
       </c>
       <c r="AS261">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT261">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU261">
         <v>1.17</v>
@@ -51595,10 +51628,10 @@
         <v>2.07</v>
       </c>
       <c r="AS263">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT263">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU263">
         <v>1.75</v>
@@ -51789,7 +51822,7 @@
         <v>1.35</v>
       </c>
       <c r="AT264">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU264">
         <v>1.27</v>
@@ -51890,7 +51923,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q265">
         <v>2</v>
@@ -51977,10 +52010,10 @@
         <v>1.21</v>
       </c>
       <c r="AS265">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT265">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU265">
         <v>1.62</v>
@@ -52081,7 +52114,7 @@
         <v>83</v>
       </c>
       <c r="P266" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q266">
         <v>5</v>
@@ -52845,7 +52878,7 @@
         <v>232</v>
       </c>
       <c r="P270" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q270">
         <v>1</v>
@@ -52935,7 +52968,7 @@
         <v>1.06</v>
       </c>
       <c r="AT270">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU270">
         <v>1.39</v>
@@ -53123,10 +53156,10 @@
         <v>0.67</v>
       </c>
       <c r="AS271">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT271">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU271">
         <v>1.28</v>
@@ -53314,10 +53347,10 @@
         <v>1.33</v>
       </c>
       <c r="AS272">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT272">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU272">
         <v>1.39</v>
@@ -53505,7 +53538,7 @@
         <v>0.53</v>
       </c>
       <c r="AS273">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT273">
         <v>0.59</v>
@@ -53609,7 +53642,7 @@
         <v>83</v>
       </c>
       <c r="P274" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -53696,10 +53729,10 @@
         <v>2.8</v>
       </c>
       <c r="AS274">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT274">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU274">
         <v>1.06</v>
@@ -53887,10 +53920,10 @@
         <v>0.8</v>
       </c>
       <c r="AS275">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT275">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU275">
         <v>1.61</v>
@@ -54078,10 +54111,10 @@
         <v>1.93</v>
       </c>
       <c r="AS276">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT276">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AU276">
         <v>1.58</v>
@@ -54182,7 +54215,7 @@
         <v>235</v>
       </c>
       <c r="P277" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q277">
         <v>4</v>
@@ -54269,10 +54302,10 @@
         <v>1.4</v>
       </c>
       <c r="AS277">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT277">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU277">
         <v>1.72</v>
@@ -54460,7 +54493,7 @@
         <v>0.93</v>
       </c>
       <c r="AS278">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT278">
         <v>0.88</v>
@@ -54564,7 +54597,7 @@
         <v>83</v>
       </c>
       <c r="P279" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -54651,10 +54684,10 @@
         <v>2.82</v>
       </c>
       <c r="AS279">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT279">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU279">
         <v>1.39</v>
@@ -54755,7 +54788,7 @@
         <v>236</v>
       </c>
       <c r="P280" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q280">
         <v>0</v>
@@ -54842,7 +54875,7 @@
         <v>1</v>
       </c>
       <c r="AS280">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT280">
         <v>0.9399999999999999</v>
@@ -55036,7 +55069,7 @@
         <v>1.35</v>
       </c>
       <c r="AT281">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU281">
         <v>1.27</v>
@@ -55224,10 +55257,10 @@
         <v>1</v>
       </c>
       <c r="AS282">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT282">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU282">
         <v>1.6</v>
@@ -55328,7 +55361,7 @@
         <v>237</v>
       </c>
       <c r="P283" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q283">
         <v>6</v>
@@ -55415,10 +55448,10 @@
         <v>1.13</v>
       </c>
       <c r="AS283">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT283">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU283">
         <v>1.06</v>
@@ -55609,7 +55642,7 @@
         <v>1.71</v>
       </c>
       <c r="AT284">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU284">
         <v>1.41</v>
@@ -55797,7 +55830,7 @@
         <v>1.07</v>
       </c>
       <c r="AS285">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT285">
         <v>1.12</v>
@@ -55901,7 +55934,7 @@
         <v>83</v>
       </c>
       <c r="P286" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q286">
         <v>1</v>
@@ -55988,10 +56021,10 @@
         <v>2.69</v>
       </c>
       <c r="AS286">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT286">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU286">
         <v>1.51</v>
@@ -56092,7 +56125,7 @@
         <v>239</v>
       </c>
       <c r="P287" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q287">
         <v>7</v>
@@ -56182,7 +56215,7 @@
         <v>1.71</v>
       </c>
       <c r="AT287">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU287">
         <v>1.37</v>
@@ -56283,7 +56316,7 @@
         <v>83</v>
       </c>
       <c r="P288" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -56665,7 +56698,7 @@
         <v>83</v>
       </c>
       <c r="P290" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q290">
         <v>5</v>
@@ -57047,7 +57080,7 @@
         <v>240</v>
       </c>
       <c r="P292" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q292">
         <v>2</v>
@@ -57238,7 +57271,7 @@
         <v>241</v>
       </c>
       <c r="P293" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q293">
         <v>4</v>
@@ -57380,6 +57413,2107 @@
       </c>
       <c r="BK293">
         <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:63">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>6686589</v>
+      </c>
+      <c r="C294" t="s">
+        <v>63</v>
+      </c>
+      <c r="D294" t="s">
+        <v>64</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45119.60416666666</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>78</v>
+      </c>
+      <c r="H294" t="s">
+        <v>71</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>0</v>
+      </c>
+      <c r="O294" t="s">
+        <v>83</v>
+      </c>
+      <c r="P294" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q294">
+        <v>4</v>
+      </c>
+      <c r="R294">
+        <v>5</v>
+      </c>
+      <c r="S294">
+        <v>9</v>
+      </c>
+      <c r="T294">
+        <v>3.35</v>
+      </c>
+      <c r="U294">
+        <v>2.1</v>
+      </c>
+      <c r="V294">
+        <v>3.58</v>
+      </c>
+      <c r="W294">
+        <v>1.47</v>
+      </c>
+      <c r="X294">
+        <v>2.44</v>
+      </c>
+      <c r="Y294">
+        <v>3.36</v>
+      </c>
+      <c r="Z294">
+        <v>1.2</v>
+      </c>
+      <c r="AA294">
+        <v>8.5</v>
+      </c>
+      <c r="AB294">
+        <v>1.05</v>
+      </c>
+      <c r="AC294">
+        <v>2.55</v>
+      </c>
+      <c r="AD294">
+        <v>2.95</v>
+      </c>
+      <c r="AE294">
+        <v>2.7</v>
+      </c>
+      <c r="AF294">
+        <v>1.05</v>
+      </c>
+      <c r="AG294">
+        <v>8</v>
+      </c>
+      <c r="AH294">
+        <v>1.56</v>
+      </c>
+      <c r="AI294">
+        <v>2.3</v>
+      </c>
+      <c r="AJ294">
+        <v>2.16</v>
+      </c>
+      <c r="AK294">
+        <v>1.62</v>
+      </c>
+      <c r="AL294">
+        <v>1.8</v>
+      </c>
+      <c r="AM294">
+        <v>1.91</v>
+      </c>
+      <c r="AN294">
+        <v>1.36</v>
+      </c>
+      <c r="AO294">
+        <v>1.33</v>
+      </c>
+      <c r="AP294">
+        <v>1.4</v>
+      </c>
+      <c r="AQ294">
+        <v>1.5</v>
+      </c>
+      <c r="AR294">
+        <v>1.31</v>
+      </c>
+      <c r="AS294">
+        <v>1.47</v>
+      </c>
+      <c r="AT294">
+        <v>1.29</v>
+      </c>
+      <c r="AU294">
+        <v>1.48</v>
+      </c>
+      <c r="AV294">
+        <v>1.17</v>
+      </c>
+      <c r="AW294">
+        <v>2.65</v>
+      </c>
+      <c r="AX294">
+        <v>1.94</v>
+      </c>
+      <c r="AY294">
+        <v>8.6</v>
+      </c>
+      <c r="AZ294">
+        <v>2.11</v>
+      </c>
+      <c r="BA294">
+        <v>1.26</v>
+      </c>
+      <c r="BB294">
+        <v>1.55</v>
+      </c>
+      <c r="BC294">
+        <v>1.92</v>
+      </c>
+      <c r="BD294">
+        <v>2.38</v>
+      </c>
+      <c r="BE294">
+        <v>3.28</v>
+      </c>
+      <c r="BF294">
+        <v>4</v>
+      </c>
+      <c r="BG294">
+        <v>4</v>
+      </c>
+      <c r="BH294">
+        <v>0</v>
+      </c>
+      <c r="BI294">
+        <v>4</v>
+      </c>
+      <c r="BJ294">
+        <v>4</v>
+      </c>
+      <c r="BK294">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:63">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>6206655</v>
+      </c>
+      <c r="C295" t="s">
+        <v>63</v>
+      </c>
+      <c r="D295" t="s">
+        <v>64</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45120.60416666666</v>
+      </c>
+      <c r="F295">
+        <v>31</v>
+      </c>
+      <c r="G295" t="s">
+        <v>76</v>
+      </c>
+      <c r="H295" t="s">
+        <v>70</v>
+      </c>
+      <c r="I295">
+        <v>3</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>3</v>
+      </c>
+      <c r="L295">
+        <v>4</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+      <c r="N295">
+        <v>5</v>
+      </c>
+      <c r="O295" t="s">
+        <v>242</v>
+      </c>
+      <c r="P295" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q295">
+        <v>3</v>
+      </c>
+      <c r="R295">
+        <v>1</v>
+      </c>
+      <c r="S295">
+        <v>4</v>
+      </c>
+      <c r="T295">
+        <v>2.3</v>
+      </c>
+      <c r="U295">
+        <v>2.05</v>
+      </c>
+      <c r="V295">
+        <v>4.65</v>
+      </c>
+      <c r="W295">
+        <v>1.42</v>
+      </c>
+      <c r="X295">
+        <v>2.7</v>
+      </c>
+      <c r="Y295">
+        <v>3.05</v>
+      </c>
+      <c r="Z295">
+        <v>1.34</v>
+      </c>
+      <c r="AA295">
+        <v>8.5</v>
+      </c>
+      <c r="AB295">
+        <v>1.07</v>
+      </c>
+      <c r="AC295">
+        <v>1.56</v>
+      </c>
+      <c r="AD295">
+        <v>3.8</v>
+      </c>
+      <c r="AE295">
+        <v>5.5</v>
+      </c>
+      <c r="AF295">
+        <v>1.05</v>
+      </c>
+      <c r="AG295">
+        <v>10.25</v>
+      </c>
+      <c r="AH295">
+        <v>1.33</v>
+      </c>
+      <c r="AI295">
+        <v>3.1</v>
+      </c>
+      <c r="AJ295">
+        <v>1.96</v>
+      </c>
+      <c r="AK295">
+        <v>1.77</v>
+      </c>
+      <c r="AL295">
+        <v>1.9</v>
+      </c>
+      <c r="AM295">
+        <v>1.83</v>
+      </c>
+      <c r="AN295">
+        <v>1.2</v>
+      </c>
+      <c r="AO295">
+        <v>1.28</v>
+      </c>
+      <c r="AP295">
+        <v>2.05</v>
+      </c>
+      <c r="AQ295">
+        <v>2.47</v>
+      </c>
+      <c r="AR295">
+        <v>1.44</v>
+      </c>
+      <c r="AS295">
+        <v>2.5</v>
+      </c>
+      <c r="AT295">
+        <v>1.35</v>
+      </c>
+      <c r="AU295">
+        <v>1.78</v>
+      </c>
+      <c r="AV295">
+        <v>1.62</v>
+      </c>
+      <c r="AW295">
+        <v>3.4</v>
+      </c>
+      <c r="AX295">
+        <v>1.33</v>
+      </c>
+      <c r="AY295">
+        <v>10.73</v>
+      </c>
+      <c r="AZ295">
+        <v>4.85</v>
+      </c>
+      <c r="BA295">
+        <v>1.31</v>
+      </c>
+      <c r="BB295">
+        <v>1.52</v>
+      </c>
+      <c r="BC295">
+        <v>1.83</v>
+      </c>
+      <c r="BD295">
+        <v>2.25</v>
+      </c>
+      <c r="BE295">
+        <v>2.89</v>
+      </c>
+      <c r="BF295">
+        <v>8</v>
+      </c>
+      <c r="BG295">
+        <v>4</v>
+      </c>
+      <c r="BH295">
+        <v>3</v>
+      </c>
+      <c r="BI295">
+        <v>4</v>
+      </c>
+      <c r="BJ295">
+        <v>11</v>
+      </c>
+      <c r="BK295">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:63">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>6686590</v>
+      </c>
+      <c r="C296" t="s">
+        <v>63</v>
+      </c>
+      <c r="D296" t="s">
+        <v>64</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45121.60416666666</v>
+      </c>
+      <c r="F296">
+        <v>34</v>
+      </c>
+      <c r="G296" t="s">
+        <v>65</v>
+      </c>
+      <c r="H296" t="s">
+        <v>73</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>2</v>
+      </c>
+      <c r="K296">
+        <v>2</v>
+      </c>
+      <c r="L296">
+        <v>2</v>
+      </c>
+      <c r="M296">
+        <v>4</v>
+      </c>
+      <c r="N296">
+        <v>6</v>
+      </c>
+      <c r="O296" t="s">
+        <v>243</v>
+      </c>
+      <c r="P296" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q296">
+        <v>5</v>
+      </c>
+      <c r="R296">
+        <v>1</v>
+      </c>
+      <c r="S296">
+        <v>6</v>
+      </c>
+      <c r="T296">
+        <v>2.65</v>
+      </c>
+      <c r="U296">
+        <v>1.95</v>
+      </c>
+      <c r="V296">
+        <v>4.1</v>
+      </c>
+      <c r="W296">
+        <v>1.47</v>
+      </c>
+      <c r="X296">
+        <v>2.5</v>
+      </c>
+      <c r="Y296">
+        <v>3.25</v>
+      </c>
+      <c r="Z296">
+        <v>1.3</v>
+      </c>
+      <c r="AA296">
+        <v>9.5</v>
+      </c>
+      <c r="AB296">
+        <v>1.06</v>
+      </c>
+      <c r="AC296">
+        <v>1.91</v>
+      </c>
+      <c r="AD296">
+        <v>3.1</v>
+      </c>
+      <c r="AE296">
+        <v>3.8</v>
+      </c>
+      <c r="AF296">
+        <v>1.08</v>
+      </c>
+      <c r="AG296">
+        <v>8</v>
+      </c>
+      <c r="AH296">
+        <v>1.4</v>
+      </c>
+      <c r="AI296">
+        <v>2.8</v>
+      </c>
+      <c r="AJ296">
+        <v>2.15</v>
+      </c>
+      <c r="AK296">
+        <v>1.57</v>
+      </c>
+      <c r="AL296">
+        <v>1.9</v>
+      </c>
+      <c r="AM296">
+        <v>1.83</v>
+      </c>
+      <c r="AN296">
+        <v>1.23</v>
+      </c>
+      <c r="AO296">
+        <v>1.38</v>
+      </c>
+      <c r="AP296">
+        <v>1.76</v>
+      </c>
+      <c r="AQ296">
+        <v>1.13</v>
+      </c>
+      <c r="AR296">
+        <v>1.13</v>
+      </c>
+      <c r="AS296">
+        <v>1.06</v>
+      </c>
+      <c r="AT296">
+        <v>1.24</v>
+      </c>
+      <c r="AU296">
+        <v>1.4</v>
+      </c>
+      <c r="AV296">
+        <v>1.23</v>
+      </c>
+      <c r="AW296">
+        <v>2.63</v>
+      </c>
+      <c r="AX296">
+        <v>1.87</v>
+      </c>
+      <c r="AY296">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="AZ296">
+        <v>2.46</v>
+      </c>
+      <c r="BA296">
+        <v>1.32</v>
+      </c>
+      <c r="BB296">
+        <v>1.56</v>
+      </c>
+      <c r="BC296">
+        <v>1.92</v>
+      </c>
+      <c r="BD296">
+        <v>2.35</v>
+      </c>
+      <c r="BE296">
+        <v>2.9</v>
+      </c>
+      <c r="BF296">
+        <v>11</v>
+      </c>
+      <c r="BG296">
+        <v>6</v>
+      </c>
+      <c r="BH296">
+        <v>11</v>
+      </c>
+      <c r="BI296">
+        <v>3</v>
+      </c>
+      <c r="BJ296">
+        <v>22</v>
+      </c>
+      <c r="BK296">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:63">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>6686591</v>
+      </c>
+      <c r="C297" t="s">
+        <v>63</v>
+      </c>
+      <c r="D297" t="s">
+        <v>64</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45121.60416666666</v>
+      </c>
+      <c r="F297">
+        <v>34</v>
+      </c>
+      <c r="G297" t="s">
+        <v>72</v>
+      </c>
+      <c r="H297" t="s">
+        <v>77</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="L297">
+        <v>2</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297">
+        <v>3</v>
+      </c>
+      <c r="O297" t="s">
+        <v>244</v>
+      </c>
+      <c r="P297" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q297">
+        <v>4</v>
+      </c>
+      <c r="R297">
+        <v>13</v>
+      </c>
+      <c r="S297">
+        <v>17</v>
+      </c>
+      <c r="T297">
+        <v>5.5</v>
+      </c>
+      <c r="U297">
+        <v>1.9</v>
+      </c>
+      <c r="V297">
+        <v>2.35</v>
+      </c>
+      <c r="W297">
+        <v>1.5</v>
+      </c>
+      <c r="X297">
+        <v>2.33</v>
+      </c>
+      <c r="Y297">
+        <v>3.45</v>
+      </c>
+      <c r="Z297">
+        <v>1.27</v>
+      </c>
+      <c r="AA297">
+        <v>10.75</v>
+      </c>
+      <c r="AB297">
+        <v>1.05</v>
+      </c>
+      <c r="AC297">
+        <v>5.25</v>
+      </c>
+      <c r="AD297">
+        <v>3.2</v>
+      </c>
+      <c r="AE297">
+        <v>1.61</v>
+      </c>
+      <c r="AF297">
+        <v>1.09</v>
+      </c>
+      <c r="AG297">
+        <v>7.5</v>
+      </c>
+      <c r="AH297">
+        <v>1.5</v>
+      </c>
+      <c r="AI297">
+        <v>2.5</v>
+      </c>
+      <c r="AJ297">
+        <v>2.37</v>
+      </c>
+      <c r="AK297">
+        <v>1.5</v>
+      </c>
+      <c r="AL297">
+        <v>2.2</v>
+      </c>
+      <c r="AM297">
+        <v>1.6</v>
+      </c>
+      <c r="AN297">
+        <v>2.1</v>
+      </c>
+      <c r="AO297">
+        <v>1.32</v>
+      </c>
+      <c r="AP297">
+        <v>1.14</v>
+      </c>
+      <c r="AQ297">
+        <v>0.88</v>
+      </c>
+      <c r="AR297">
+        <v>0.75</v>
+      </c>
+      <c r="AS297">
+        <v>1</v>
+      </c>
+      <c r="AT297">
+        <v>0.71</v>
+      </c>
+      <c r="AU297">
+        <v>1.1</v>
+      </c>
+      <c r="AV297">
+        <v>1.14</v>
+      </c>
+      <c r="AW297">
+        <v>2.24</v>
+      </c>
+      <c r="AX297">
+        <v>2.37</v>
+      </c>
+      <c r="AY297">
+        <v>8.5</v>
+      </c>
+      <c r="AZ297">
+        <v>1.8</v>
+      </c>
+      <c r="BA297">
+        <v>1.35</v>
+      </c>
+      <c r="BB297">
+        <v>1.72</v>
+      </c>
+      <c r="BC297">
+        <v>2.13</v>
+      </c>
+      <c r="BD297">
+        <v>2.79</v>
+      </c>
+      <c r="BE297">
+        <v>0</v>
+      </c>
+      <c r="BF297">
+        <v>4</v>
+      </c>
+      <c r="BG297">
+        <v>10</v>
+      </c>
+      <c r="BH297">
+        <v>2</v>
+      </c>
+      <c r="BI297">
+        <v>9</v>
+      </c>
+      <c r="BJ297">
+        <v>6</v>
+      </c>
+      <c r="BK297">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="1:63">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>6686593</v>
+      </c>
+      <c r="C298" t="s">
+        <v>63</v>
+      </c>
+      <c r="D298" t="s">
+        <v>64</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45121.60416666666</v>
+      </c>
+      <c r="F298">
+        <v>34</v>
+      </c>
+      <c r="G298" t="s">
+        <v>66</v>
+      </c>
+      <c r="H298" t="s">
+        <v>79</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>1</v>
+      </c>
+      <c r="O298" t="s">
+        <v>189</v>
+      </c>
+      <c r="P298" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q298">
+        <v>2</v>
+      </c>
+      <c r="R298">
+        <v>6</v>
+      </c>
+      <c r="S298">
+        <v>8</v>
+      </c>
+      <c r="T298">
+        <v>3.25</v>
+      </c>
+      <c r="U298">
+        <v>1.9</v>
+      </c>
+      <c r="V298">
+        <v>3.2</v>
+      </c>
+      <c r="W298">
+        <v>1.46</v>
+      </c>
+      <c r="X298">
+        <v>2.45</v>
+      </c>
+      <c r="Y298">
+        <v>3.2</v>
+      </c>
+      <c r="Z298">
+        <v>1.31</v>
+      </c>
+      <c r="AA298">
+        <v>9.25</v>
+      </c>
+      <c r="AB298">
+        <v>1.06</v>
+      </c>
+      <c r="AC298">
+        <v>2.6</v>
+      </c>
+      <c r="AD298">
+        <v>2.9</v>
+      </c>
+      <c r="AE298">
+        <v>2.55</v>
+      </c>
+      <c r="AF298">
+        <v>1.07</v>
+      </c>
+      <c r="AG298">
+        <v>8.25</v>
+      </c>
+      <c r="AH298">
+        <v>1.39</v>
+      </c>
+      <c r="AI298">
+        <v>2.8</v>
+      </c>
+      <c r="AJ298">
+        <v>2.15</v>
+      </c>
+      <c r="AK298">
+        <v>1.57</v>
+      </c>
+      <c r="AL298">
+        <v>1.8</v>
+      </c>
+      <c r="AM298">
+        <v>1.9</v>
+      </c>
+      <c r="AN298">
+        <v>1.45</v>
+      </c>
+      <c r="AO298">
+        <v>1.39</v>
+      </c>
+      <c r="AP298">
+        <v>1.42</v>
+      </c>
+      <c r="AQ298">
+        <v>1.63</v>
+      </c>
+      <c r="AR298">
+        <v>1.81</v>
+      </c>
+      <c r="AS298">
+        <v>1.71</v>
+      </c>
+      <c r="AT298">
+        <v>1.71</v>
+      </c>
+      <c r="AU298">
+        <v>1.39</v>
+      </c>
+      <c r="AV298">
+        <v>1.4</v>
+      </c>
+      <c r="AW298">
+        <v>2.79</v>
+      </c>
+      <c r="AX298">
+        <v>2.07</v>
+      </c>
+      <c r="AY298">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ298">
+        <v>1.99</v>
+      </c>
+      <c r="BA298">
+        <v>1.34</v>
+      </c>
+      <c r="BB298">
+        <v>1.63</v>
+      </c>
+      <c r="BC298">
+        <v>2.09</v>
+      </c>
+      <c r="BD298">
+        <v>2.75</v>
+      </c>
+      <c r="BE298">
+        <v>3.88</v>
+      </c>
+      <c r="BF298">
+        <v>2</v>
+      </c>
+      <c r="BG298">
+        <v>3</v>
+      </c>
+      <c r="BH298">
+        <v>5</v>
+      </c>
+      <c r="BI298">
+        <v>4</v>
+      </c>
+      <c r="BJ298">
+        <v>7</v>
+      </c>
+      <c r="BK298">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:63">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>6686596</v>
+      </c>
+      <c r="C299" t="s">
+        <v>63</v>
+      </c>
+      <c r="D299" t="s">
+        <v>64</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45121.60416666666</v>
+      </c>
+      <c r="F299">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>74</v>
+      </c>
+      <c r="H299" t="s">
+        <v>81</v>
+      </c>
+      <c r="I299">
+        <v>3</v>
+      </c>
+      <c r="J299">
+        <v>1</v>
+      </c>
+      <c r="K299">
+        <v>4</v>
+      </c>
+      <c r="L299">
+        <v>4</v>
+      </c>
+      <c r="M299">
+        <v>2</v>
+      </c>
+      <c r="N299">
+        <v>6</v>
+      </c>
+      <c r="O299" t="s">
+        <v>245</v>
+      </c>
+      <c r="P299" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q299">
+        <v>2</v>
+      </c>
+      <c r="R299">
+        <v>6</v>
+      </c>
+      <c r="S299">
+        <v>8</v>
+      </c>
+      <c r="T299">
+        <v>2.45</v>
+      </c>
+      <c r="U299">
+        <v>1.95</v>
+      </c>
+      <c r="V299">
+        <v>4.6</v>
+      </c>
+      <c r="W299">
+        <v>1.46</v>
+      </c>
+      <c r="X299">
+        <v>2.55</v>
+      </c>
+      <c r="Y299">
+        <v>3.15</v>
+      </c>
+      <c r="Z299">
+        <v>1.32</v>
+      </c>
+      <c r="AA299">
+        <v>9.5</v>
+      </c>
+      <c r="AB299">
+        <v>1.06</v>
+      </c>
+      <c r="AC299">
+        <v>1.75</v>
+      </c>
+      <c r="AD299">
+        <v>3.2</v>
+      </c>
+      <c r="AE299">
+        <v>4.33</v>
+      </c>
+      <c r="AF299">
+        <v>1.06</v>
+      </c>
+      <c r="AG299">
+        <v>9</v>
+      </c>
+      <c r="AH299">
+        <v>1.39</v>
+      </c>
+      <c r="AI299">
+        <v>2.93</v>
+      </c>
+      <c r="AJ299">
+        <v>2.15</v>
+      </c>
+      <c r="AK299">
+        <v>1.57</v>
+      </c>
+      <c r="AL299">
+        <v>1.95</v>
+      </c>
+      <c r="AM299">
+        <v>1.8</v>
+      </c>
+      <c r="AN299">
+        <v>1.2</v>
+      </c>
+      <c r="AO299">
+        <v>1.34</v>
+      </c>
+      <c r="AP299">
+        <v>1.95</v>
+      </c>
+      <c r="AQ299">
+        <v>2.6</v>
+      </c>
+      <c r="AR299">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS299">
+        <v>2.63</v>
+      </c>
+      <c r="AT299">
+        <v>0.76</v>
+      </c>
+      <c r="AU299">
+        <v>1.73</v>
+      </c>
+      <c r="AV299">
+        <v>1.33</v>
+      </c>
+      <c r="AW299">
+        <v>3.06</v>
+      </c>
+      <c r="AX299">
+        <v>1.31</v>
+      </c>
+      <c r="AY299">
+        <v>9.6</v>
+      </c>
+      <c r="AZ299">
+        <v>4.2</v>
+      </c>
+      <c r="BA299">
+        <v>1.38</v>
+      </c>
+      <c r="BB299">
+        <v>1.74</v>
+      </c>
+      <c r="BC299">
+        <v>2.16</v>
+      </c>
+      <c r="BD299">
+        <v>2.93</v>
+      </c>
+      <c r="BE299">
+        <v>0</v>
+      </c>
+      <c r="BF299">
+        <v>5</v>
+      </c>
+      <c r="BG299">
+        <v>6</v>
+      </c>
+      <c r="BH299">
+        <v>2</v>
+      </c>
+      <c r="BI299">
+        <v>5</v>
+      </c>
+      <c r="BJ299">
+        <v>7</v>
+      </c>
+      <c r="BK299">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:63">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>6686592</v>
+      </c>
+      <c r="C300" t="s">
+        <v>63</v>
+      </c>
+      <c r="D300" t="s">
+        <v>64</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45122.54166666666</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>69</v>
+      </c>
+      <c r="H300" t="s">
+        <v>75</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>1</v>
+      </c>
+      <c r="O300" t="s">
+        <v>246</v>
+      </c>
+      <c r="P300" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q300">
+        <v>1</v>
+      </c>
+      <c r="R300">
+        <v>2</v>
+      </c>
+      <c r="S300">
+        <v>3</v>
+      </c>
+      <c r="T300">
+        <v>3.96</v>
+      </c>
+      <c r="U300">
+        <v>2.01</v>
+      </c>
+      <c r="V300">
+        <v>3.2</v>
+      </c>
+      <c r="W300">
+        <v>1.52</v>
+      </c>
+      <c r="X300">
+        <v>2.5</v>
+      </c>
+      <c r="Y300">
+        <v>3.2</v>
+      </c>
+      <c r="Z300">
+        <v>1.17</v>
+      </c>
+      <c r="AA300">
+        <v>9.5</v>
+      </c>
+      <c r="AB300">
+        <v>1.04</v>
+      </c>
+      <c r="AC300">
+        <v>3.45</v>
+      </c>
+      <c r="AD300">
+        <v>3.24</v>
+      </c>
+      <c r="AE300">
+        <v>2.18</v>
+      </c>
+      <c r="AF300">
+        <v>1.07</v>
+      </c>
+      <c r="AG300">
+        <v>7</v>
+      </c>
+      <c r="AH300">
+        <v>1.49</v>
+      </c>
+      <c r="AI300">
+        <v>2.43</v>
+      </c>
+      <c r="AJ300">
+        <v>2.35</v>
+      </c>
+      <c r="AK300">
+        <v>1.55</v>
+      </c>
+      <c r="AL300">
+        <v>1.97</v>
+      </c>
+      <c r="AM300">
+        <v>1.76</v>
+      </c>
+      <c r="AN300">
+        <v>1.53</v>
+      </c>
+      <c r="AO300">
+        <v>1.38</v>
+      </c>
+      <c r="AP300">
+        <v>1.32</v>
+      </c>
+      <c r="AQ300">
+        <v>1.44</v>
+      </c>
+      <c r="AR300">
+        <v>0.88</v>
+      </c>
+      <c r="AS300">
+        <v>1.53</v>
+      </c>
+      <c r="AT300">
+        <v>0.82</v>
+      </c>
+      <c r="AU300">
+        <v>1.13</v>
+      </c>
+      <c r="AV300">
+        <v>1.59</v>
+      </c>
+      <c r="AW300">
+        <v>2.72</v>
+      </c>
+      <c r="AX300">
+        <v>2.23</v>
+      </c>
+      <c r="AY300">
+        <v>8.4</v>
+      </c>
+      <c r="AZ300">
+        <v>1.86</v>
+      </c>
+      <c r="BA300">
+        <v>1.33</v>
+      </c>
+      <c r="BB300">
+        <v>1.71</v>
+      </c>
+      <c r="BC300">
+        <v>2.11</v>
+      </c>
+      <c r="BD300">
+        <v>2.71</v>
+      </c>
+      <c r="BE300">
+        <v>3.74</v>
+      </c>
+      <c r="BF300">
+        <v>3</v>
+      </c>
+      <c r="BG300">
+        <v>3</v>
+      </c>
+      <c r="BH300">
+        <v>2</v>
+      </c>
+      <c r="BI300">
+        <v>2</v>
+      </c>
+      <c r="BJ300">
+        <v>5</v>
+      </c>
+      <c r="BK300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:63">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>6686594</v>
+      </c>
+      <c r="C301" t="s">
+        <v>63</v>
+      </c>
+      <c r="D301" t="s">
+        <v>64</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45122.54166666666</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+      <c r="G301" t="s">
+        <v>67</v>
+      </c>
+      <c r="H301" t="s">
+        <v>80</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>1</v>
+      </c>
+      <c r="K301">
+        <v>1</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301">
+        <v>1</v>
+      </c>
+      <c r="N301">
+        <v>1</v>
+      </c>
+      <c r="O301" t="s">
+        <v>83</v>
+      </c>
+      <c r="P301" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q301">
+        <v>4</v>
+      </c>
+      <c r="R301">
+        <v>3</v>
+      </c>
+      <c r="S301">
+        <v>7</v>
+      </c>
+      <c r="T301">
+        <v>2.69</v>
+      </c>
+      <c r="U301">
+        <v>2.21</v>
+      </c>
+      <c r="V301">
+        <v>4.06</v>
+      </c>
+      <c r="W301">
+        <v>1.41</v>
+      </c>
+      <c r="X301">
+        <v>2.57</v>
+      </c>
+      <c r="Y301">
+        <v>3.04</v>
+      </c>
+      <c r="Z301">
+        <v>1.27</v>
+      </c>
+      <c r="AA301">
+        <v>7.5</v>
+      </c>
+      <c r="AB301">
+        <v>1.06</v>
+      </c>
+      <c r="AC301">
+        <v>2.06</v>
+      </c>
+      <c r="AD301">
+        <v>3.5</v>
+      </c>
+      <c r="AE301">
+        <v>3.5</v>
+      </c>
+      <c r="AF301">
+        <v>1.03</v>
+      </c>
+      <c r="AG301">
+        <v>9</v>
+      </c>
+      <c r="AH301">
+        <v>1.29</v>
+      </c>
+      <c r="AI301">
+        <v>3.33</v>
+      </c>
+      <c r="AJ301">
+        <v>1.99</v>
+      </c>
+      <c r="AK301">
+        <v>1.82</v>
+      </c>
+      <c r="AL301">
+        <v>1.73</v>
+      </c>
+      <c r="AM301">
+        <v>2</v>
+      </c>
+      <c r="AN301">
+        <v>1.25</v>
+      </c>
+      <c r="AO301">
+        <v>1.29</v>
+      </c>
+      <c r="AP301">
+        <v>1.67</v>
+      </c>
+      <c r="AQ301">
+        <v>1.53</v>
+      </c>
+      <c r="AR301">
+        <v>1.31</v>
+      </c>
+      <c r="AS301">
+        <v>1.44</v>
+      </c>
+      <c r="AT301">
+        <v>1.41</v>
+      </c>
+      <c r="AU301">
+        <v>1.53</v>
+      </c>
+      <c r="AV301">
+        <v>1.2</v>
+      </c>
+      <c r="AW301">
+        <v>2.73</v>
+      </c>
+      <c r="AX301">
+        <v>1.55</v>
+      </c>
+      <c r="AY301">
+        <v>8.9</v>
+      </c>
+      <c r="AZ301">
+        <v>2.88</v>
+      </c>
+      <c r="BA301">
+        <v>1.29</v>
+      </c>
+      <c r="BB301">
+        <v>1.62</v>
+      </c>
+      <c r="BC301">
+        <v>2.02</v>
+      </c>
+      <c r="BD301">
+        <v>2.48</v>
+      </c>
+      <c r="BE301">
+        <v>3.48</v>
+      </c>
+      <c r="BF301">
+        <v>4</v>
+      </c>
+      <c r="BG301">
+        <v>7</v>
+      </c>
+      <c r="BH301">
+        <v>8</v>
+      </c>
+      <c r="BI301">
+        <v>8</v>
+      </c>
+      <c r="BJ301">
+        <v>12</v>
+      </c>
+      <c r="BK301">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" spans="1:63">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>6686595</v>
+      </c>
+      <c r="C302" t="s">
+        <v>63</v>
+      </c>
+      <c r="D302" t="s">
+        <v>64</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45122.64583333334</v>
+      </c>
+      <c r="F302">
+        <v>34</v>
+      </c>
+      <c r="G302" t="s">
+        <v>68</v>
+      </c>
+      <c r="H302" t="s">
+        <v>78</v>
+      </c>
+      <c r="I302">
+        <v>3</v>
+      </c>
+      <c r="J302">
+        <v>1</v>
+      </c>
+      <c r="K302">
+        <v>4</v>
+      </c>
+      <c r="L302">
+        <v>4</v>
+      </c>
+      <c r="M302">
+        <v>1</v>
+      </c>
+      <c r="N302">
+        <v>5</v>
+      </c>
+      <c r="O302" t="s">
+        <v>247</v>
+      </c>
+      <c r="P302" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q302">
+        <v>1</v>
+      </c>
+      <c r="R302">
+        <v>4</v>
+      </c>
+      <c r="S302">
+        <v>5</v>
+      </c>
+      <c r="T302">
+        <v>2.7</v>
+      </c>
+      <c r="U302">
+        <v>1.93</v>
+      </c>
+      <c r="V302">
+        <v>4.33</v>
+      </c>
+      <c r="W302">
+        <v>1.47</v>
+      </c>
+      <c r="X302">
+        <v>2.45</v>
+      </c>
+      <c r="Y302">
+        <v>2.95</v>
+      </c>
+      <c r="Z302">
+        <v>1.35</v>
+      </c>
+      <c r="AA302">
+        <v>7.75</v>
+      </c>
+      <c r="AB302">
+        <v>1.07</v>
+      </c>
+      <c r="AC302">
+        <v>2.05</v>
+      </c>
+      <c r="AD302">
+        <v>3.38</v>
+      </c>
+      <c r="AE302">
+        <v>3.66</v>
+      </c>
+      <c r="AF302">
+        <v>1.05</v>
+      </c>
+      <c r="AG302">
+        <v>8</v>
+      </c>
+      <c r="AH302">
+        <v>1.33</v>
+      </c>
+      <c r="AI302">
+        <v>3</v>
+      </c>
+      <c r="AJ302">
+        <v>2.17</v>
+      </c>
+      <c r="AK302">
+        <v>1.69</v>
+      </c>
+      <c r="AL302">
+        <v>1.85</v>
+      </c>
+      <c r="AM302">
+        <v>1.83</v>
+      </c>
+      <c r="AN302">
+        <v>1.24</v>
+      </c>
+      <c r="AO302">
+        <v>1.37</v>
+      </c>
+      <c r="AP302">
+        <v>1.7</v>
+      </c>
+      <c r="AQ302">
+        <v>1.13</v>
+      </c>
+      <c r="AR302">
+        <v>1.13</v>
+      </c>
+      <c r="AS302">
+        <v>1.24</v>
+      </c>
+      <c r="AT302">
+        <v>1.06</v>
+      </c>
+      <c r="AU302">
+        <v>1.31</v>
+      </c>
+      <c r="AV302">
+        <v>1.48</v>
+      </c>
+      <c r="AW302">
+        <v>2.79</v>
+      </c>
+      <c r="AX302">
+        <v>1.66</v>
+      </c>
+      <c r="AY302">
+        <v>7.5</v>
+      </c>
+      <c r="AZ302">
+        <v>2.71</v>
+      </c>
+      <c r="BA302">
+        <v>1.24</v>
+      </c>
+      <c r="BB302">
+        <v>1.53</v>
+      </c>
+      <c r="BC302">
+        <v>1.88</v>
+      </c>
+      <c r="BD302">
+        <v>2.31</v>
+      </c>
+      <c r="BE302">
+        <v>3.2</v>
+      </c>
+      <c r="BF302">
+        <v>3</v>
+      </c>
+      <c r="BG302">
+        <v>5</v>
+      </c>
+      <c r="BH302">
+        <v>2</v>
+      </c>
+      <c r="BI302">
+        <v>5</v>
+      </c>
+      <c r="BJ302">
+        <v>5</v>
+      </c>
+      <c r="BK302">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:63">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>6686597</v>
+      </c>
+      <c r="C303" t="s">
+        <v>63</v>
+      </c>
+      <c r="D303" t="s">
+        <v>64</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45123.54166666666</v>
+      </c>
+      <c r="F303">
+        <v>34</v>
+      </c>
+      <c r="G303" t="s">
+        <v>71</v>
+      </c>
+      <c r="H303" t="s">
+        <v>76</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303">
+        <v>2</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303">
+        <v>4</v>
+      </c>
+      <c r="N303">
+        <v>5</v>
+      </c>
+      <c r="O303" t="s">
+        <v>248</v>
+      </c>
+      <c r="P303" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q303">
+        <v>4</v>
+      </c>
+      <c r="R303">
+        <v>4</v>
+      </c>
+      <c r="S303">
+        <v>8</v>
+      </c>
+      <c r="T303">
+        <v>7.39</v>
+      </c>
+      <c r="U303">
+        <v>2.2</v>
+      </c>
+      <c r="V303">
+        <v>1.93</v>
+      </c>
+      <c r="W303">
+        <v>1.4</v>
+      </c>
+      <c r="X303">
+        <v>2.75</v>
+      </c>
+      <c r="Y303">
+        <v>3</v>
+      </c>
+      <c r="Z303">
+        <v>1.33</v>
+      </c>
+      <c r="AA303">
+        <v>7.5</v>
+      </c>
+      <c r="AB303">
+        <v>1.06</v>
+      </c>
+      <c r="AC303">
+        <v>4.6</v>
+      </c>
+      <c r="AD303">
+        <v>3.85</v>
+      </c>
+      <c r="AE303">
+        <v>1.55</v>
+      </c>
+      <c r="AF303">
+        <v>1.03</v>
+      </c>
+      <c r="AG303">
+        <v>9</v>
+      </c>
+      <c r="AH303">
+        <v>1.29</v>
+      </c>
+      <c r="AI303">
+        <v>3.3</v>
+      </c>
+      <c r="AJ303">
+        <v>1.81</v>
+      </c>
+      <c r="AK303">
+        <v>2.05</v>
+      </c>
+      <c r="AL303">
+        <v>2.2</v>
+      </c>
+      <c r="AM303">
+        <v>1.6</v>
+      </c>
+      <c r="AN303">
+        <v>2.62</v>
+      </c>
+      <c r="AO303">
+        <v>1.2</v>
+      </c>
+      <c r="AP303">
+        <v>1.06</v>
+      </c>
+      <c r="AQ303">
+        <v>1.38</v>
+      </c>
+      <c r="AR303">
+        <v>2.71</v>
+      </c>
+      <c r="AS303">
+        <v>1.29</v>
+      </c>
+      <c r="AT303">
+        <v>2.73</v>
+      </c>
+      <c r="AU303">
+        <v>1.63</v>
+      </c>
+      <c r="AV303">
+        <v>1.87</v>
+      </c>
+      <c r="AW303">
+        <v>3.5</v>
+      </c>
+      <c r="AX303">
+        <v>3.4</v>
+      </c>
+      <c r="AY303">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ303">
+        <v>1.42</v>
+      </c>
+      <c r="BA303">
+        <v>1.26</v>
+      </c>
+      <c r="BB303">
+        <v>1.56</v>
+      </c>
+      <c r="BC303">
+        <v>1.93</v>
+      </c>
+      <c r="BD303">
+        <v>2.36</v>
+      </c>
+      <c r="BE303">
+        <v>3.28</v>
+      </c>
+      <c r="BF303">
+        <v>0</v>
+      </c>
+      <c r="BG303">
+        <v>2</v>
+      </c>
+      <c r="BH303">
+        <v>7</v>
+      </c>
+      <c r="BI303">
+        <v>3</v>
+      </c>
+      <c r="BJ303">
+        <v>7</v>
+      </c>
+      <c r="BK303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:63">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>6686598</v>
+      </c>
+      <c r="C304" t="s">
+        <v>63</v>
+      </c>
+      <c r="D304" t="s">
+        <v>64</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45123.64583333334</v>
+      </c>
+      <c r="F304">
+        <v>34</v>
+      </c>
+      <c r="G304" t="s">
+        <v>70</v>
+      </c>
+      <c r="H304" t="s">
+        <v>82</v>
+      </c>
+      <c r="I304">
+        <v>2</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>2</v>
+      </c>
+      <c r="L304">
+        <v>2</v>
+      </c>
+      <c r="M304">
+        <v>2</v>
+      </c>
+      <c r="N304">
+        <v>4</v>
+      </c>
+      <c r="O304" t="s">
+        <v>249</v>
+      </c>
+      <c r="P304" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q304">
+        <v>1</v>
+      </c>
+      <c r="R304">
+        <v>3</v>
+      </c>
+      <c r="S304">
+        <v>4</v>
+      </c>
+      <c r="T304">
+        <v>2.12</v>
+      </c>
+      <c r="U304">
+        <v>2.1</v>
+      </c>
+      <c r="V304">
+        <v>6.3</v>
+      </c>
+      <c r="W304">
+        <v>1.4</v>
+      </c>
+      <c r="X304">
+        <v>2.75</v>
+      </c>
+      <c r="Y304">
+        <v>3</v>
+      </c>
+      <c r="Z304">
+        <v>1.33</v>
+      </c>
+      <c r="AA304">
+        <v>8</v>
+      </c>
+      <c r="AB304">
+        <v>1.06</v>
+      </c>
+      <c r="AC304">
+        <v>1.53</v>
+      </c>
+      <c r="AD304">
+        <v>3.6</v>
+      </c>
+      <c r="AE304">
+        <v>6</v>
+      </c>
+      <c r="AF304">
+        <v>1.03</v>
+      </c>
+      <c r="AG304">
+        <v>9</v>
+      </c>
+      <c r="AH304">
+        <v>1.3</v>
+      </c>
+      <c r="AI304">
+        <v>3.2</v>
+      </c>
+      <c r="AJ304">
+        <v>2.02</v>
+      </c>
+      <c r="AK304">
+        <v>1.79</v>
+      </c>
+      <c r="AL304">
+        <v>2.1</v>
+      </c>
+      <c r="AM304">
+        <v>1.65</v>
+      </c>
+      <c r="AN304">
+        <v>1.08</v>
+      </c>
+      <c r="AO304">
+        <v>1.22</v>
+      </c>
+      <c r="AP304">
+        <v>2.3</v>
+      </c>
+      <c r="AQ304">
+        <v>2.25</v>
+      </c>
+      <c r="AR304">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS304">
+        <v>2.18</v>
+      </c>
+      <c r="AT304">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU304">
+        <v>1.59</v>
+      </c>
+      <c r="AV304">
+        <v>1.21</v>
+      </c>
+      <c r="AW304">
+        <v>2.8</v>
+      </c>
+      <c r="AX304">
+        <v>1.43</v>
+      </c>
+      <c r="AY304">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ304">
+        <v>3.35</v>
+      </c>
+      <c r="BA304">
+        <v>1.28</v>
+      </c>
+      <c r="BB304">
+        <v>1.6</v>
+      </c>
+      <c r="BC304">
+        <v>1.98</v>
+      </c>
+      <c r="BD304">
+        <v>2.43</v>
+      </c>
+      <c r="BE304">
+        <v>3.42</v>
+      </c>
+      <c r="BF304">
+        <v>3</v>
+      </c>
+      <c r="BG304">
+        <v>4</v>
+      </c>
+      <c r="BH304">
+        <v>4</v>
+      </c>
+      <c r="BI304">
+        <v>3</v>
+      </c>
+      <c r="BJ304">
+        <v>7</v>
+      </c>
+      <c r="BK304">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
@@ -58925,7 +58925,7 @@
         <v>3.48</v>
       </c>
       <c r="BF301">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG301">
         <v>7</v>
@@ -58934,13 +58934,13 @@
         <v>8</v>
       </c>
       <c r="BI301">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BJ301">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK301">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:63">
@@ -59116,22 +59116,22 @@
         <v>3.2</v>
       </c>
       <c r="BF302">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BG302">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH302">
         <v>2</v>
       </c>
       <c r="BI302">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ302">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BK302">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:63">
@@ -59184,13 +59184,13 @@
         <v>355</v>
       </c>
       <c r="Q303">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R303">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S303">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="T303">
         <v>7.39</v>
@@ -59307,22 +59307,22 @@
         <v>3.28</v>
       </c>
       <c r="BF303">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG303">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH303">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI303">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ303">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK303">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" spans="1:63">
@@ -59375,13 +59375,13 @@
         <v>356</v>
       </c>
       <c r="Q304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R304">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S304">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T304">
         <v>2.12</v>
@@ -59498,22 +59498,22 @@
         <v>3.42</v>
       </c>
       <c r="BF304">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG304">
+        <v>7</v>
+      </c>
+      <c r="BH304">
+        <v>10</v>
+      </c>
+      <c r="BI304">
         <v>4</v>
       </c>
-      <c r="BH304">
-        <v>4</v>
-      </c>
-      <c r="BI304">
-        <v>3</v>
-      </c>
       <c r="BJ304">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BK304">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="358">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -766,6 +766,9 @@
     <t>['26', '31']</t>
   </si>
   <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -1446,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK304"/>
+  <dimension ref="A1:BK305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1690,7 +1693,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2072,7 +2075,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2454,7 +2457,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2836,7 +2839,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -3027,7 +3030,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3600,7 +3603,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3878,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT13">
         <v>0.88</v>
@@ -3982,7 +3985,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -5027,7 +5030,7 @@
         <v>1.53</v>
       </c>
       <c r="AT19">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -6274,7 +6277,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -7229,7 +7232,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7611,7 +7614,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7993,7 +7996,7 @@
         <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8184,7 +8187,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8844,7 +8847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT39">
         <v>0.76</v>
@@ -9139,7 +9142,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9521,7 +9524,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9712,7 +9715,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9993,7 +9996,7 @@
         <v>1.53</v>
       </c>
       <c r="AT45">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU45">
         <v>0.95</v>
@@ -10094,7 +10097,7 @@
         <v>106</v>
       </c>
       <c r="P46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10667,7 +10670,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10858,7 +10861,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11431,7 +11434,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11521,7 +11524,7 @@
         <v>1.35</v>
       </c>
       <c r="AT53">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU53">
         <v>1.6</v>
@@ -11900,7 +11903,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT55">
         <v>1.06</v>
@@ -12004,7 +12007,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12195,7 +12198,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12768,7 +12771,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12959,7 +12962,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -13619,7 +13622,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT64">
         <v>1.71</v>
@@ -13914,7 +13917,7 @@
         <v>83</v>
       </c>
       <c r="P66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14487,7 +14490,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14869,7 +14872,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15150,7 +15153,7 @@
         <v>2.18</v>
       </c>
       <c r="AT72">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU72">
         <v>1.07</v>
@@ -15251,7 +15254,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16206,7 +16209,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16588,7 +16591,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17057,7 +17060,7 @@
         <v>1.25</v>
       </c>
       <c r="AS82">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT82">
         <v>1.41</v>
@@ -17543,7 +17546,7 @@
         <v>132</v>
       </c>
       <c r="P85" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17734,7 +17737,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17824,7 +17827,7 @@
         <v>1.35</v>
       </c>
       <c r="AT86">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU86">
         <v>1.1</v>
@@ -17925,7 +17928,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18116,7 +18119,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -18307,7 +18310,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18689,7 +18692,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -19071,7 +19074,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19262,7 +19265,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19540,7 +19543,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT95">
         <v>1.65</v>
@@ -19644,7 +19647,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19835,7 +19838,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19925,7 +19928,7 @@
         <v>1.29</v>
       </c>
       <c r="AT97">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU97">
         <v>1.6</v>
@@ -20599,7 +20602,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -21172,7 +21175,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21936,7 +21939,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22127,7 +22130,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22318,7 +22321,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -23360,7 +23363,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT115">
         <v>1.41</v>
@@ -23554,7 +23557,7 @@
         <v>1.06</v>
       </c>
       <c r="AT116">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU116">
         <v>1.42</v>
@@ -23846,7 +23849,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24419,7 +24422,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24801,7 +24804,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25183,7 +25186,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25374,7 +25377,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25565,7 +25568,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25756,7 +25759,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -26610,7 +26613,7 @@
         <v>1.47</v>
       </c>
       <c r="AT132">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU132">
         <v>1.62</v>
@@ -26711,7 +26714,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26902,7 +26905,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27093,7 +27096,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27371,7 +27374,7 @@
         <v>0.57</v>
       </c>
       <c r="AS136">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT136">
         <v>0.59</v>
@@ -27475,7 +27478,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27666,7 +27669,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -28048,7 +28051,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -28239,7 +28242,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28621,7 +28624,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28812,7 +28815,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -29003,7 +29006,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -29194,7 +29197,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29284,7 +29287,7 @@
         <v>1.24</v>
       </c>
       <c r="AT146">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU146">
         <v>1.38</v>
@@ -29385,7 +29388,7 @@
         <v>169</v>
       </c>
       <c r="P147" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -30149,7 +30152,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30722,7 +30725,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31486,7 +31489,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31767,7 +31770,7 @@
         <v>1.71</v>
       </c>
       <c r="AT159">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU159">
         <v>1.25</v>
@@ -32059,7 +32062,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -32250,7 +32253,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32632,7 +32635,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -33677,7 +33680,7 @@
         <v>1.06</v>
       </c>
       <c r="AT169">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU169">
         <v>1.41</v>
@@ -33778,7 +33781,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33969,7 +33972,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -34351,7 +34354,7 @@
         <v>171</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34629,7 +34632,7 @@
         <v>1.11</v>
       </c>
       <c r="AS174">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT174">
         <v>1.24</v>
@@ -35497,7 +35500,7 @@
         <v>186</v>
       </c>
       <c r="P179" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35966,7 +35969,7 @@
         <v>1.5</v>
       </c>
       <c r="AS181">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT181">
         <v>1.29</v>
@@ -36452,7 +36455,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36643,7 +36646,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37407,7 +37410,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q189">
         <v>10</v>
@@ -38362,7 +38365,7 @@
         <v>92</v>
       </c>
       <c r="P194" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38744,7 +38747,7 @@
         <v>194</v>
       </c>
       <c r="P196" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q196">
         <v>11</v>
@@ -39022,7 +39025,7 @@
         <v>1.1</v>
       </c>
       <c r="AS197">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT197">
         <v>0.71</v>
@@ -39508,7 +39511,7 @@
         <v>196</v>
       </c>
       <c r="P200" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39789,7 +39792,7 @@
         <v>1.44</v>
       </c>
       <c r="AT201">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU201">
         <v>1.64</v>
@@ -39890,7 +39893,7 @@
         <v>198</v>
       </c>
       <c r="P202" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -40272,7 +40275,7 @@
         <v>199</v>
       </c>
       <c r="P204" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40463,7 +40466,7 @@
         <v>200</v>
       </c>
       <c r="P205" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -41418,7 +41421,7 @@
         <v>83</v>
       </c>
       <c r="P210" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q210">
         <v>7</v>
@@ -41609,7 +41612,7 @@
         <v>83</v>
       </c>
       <c r="P211" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41887,7 +41890,7 @@
         <v>1.09</v>
       </c>
       <c r="AS212">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT212">
         <v>0.9399999999999999</v>
@@ -42373,7 +42376,7 @@
         <v>205</v>
       </c>
       <c r="P215" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42564,7 +42567,7 @@
         <v>83</v>
       </c>
       <c r="P216" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -43227,7 +43230,7 @@
         <v>1.71</v>
       </c>
       <c r="AT219">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU219">
         <v>1.36</v>
@@ -43710,7 +43713,7 @@
         <v>210</v>
       </c>
       <c r="P222" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -44283,7 +44286,7 @@
         <v>83</v>
       </c>
       <c r="P225" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44856,7 +44859,7 @@
         <v>83</v>
       </c>
       <c r="P228" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q228">
         <v>14</v>
@@ -45047,7 +45050,7 @@
         <v>97</v>
       </c>
       <c r="P229" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45238,7 +45241,7 @@
         <v>212</v>
       </c>
       <c r="P230" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45429,7 +45432,7 @@
         <v>213</v>
       </c>
       <c r="P231" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45620,7 +45623,7 @@
         <v>214</v>
       </c>
       <c r="P232" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -46193,7 +46196,7 @@
         <v>216</v>
       </c>
       <c r="P235" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -46575,7 +46578,7 @@
         <v>133</v>
       </c>
       <c r="P237" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q237">
         <v>6</v>
@@ -46957,7 +46960,7 @@
         <v>83</v>
       </c>
       <c r="P239" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -47339,7 +47342,7 @@
         <v>218</v>
       </c>
       <c r="P241" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -48002,7 +48005,7 @@
         <v>1.24</v>
       </c>
       <c r="AT244">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU244">
         <v>1.28</v>
@@ -48103,7 +48106,7 @@
         <v>83</v>
       </c>
       <c r="P245" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q245">
         <v>6</v>
@@ -48294,7 +48297,7 @@
         <v>108</v>
       </c>
       <c r="P246" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -48867,7 +48870,7 @@
         <v>87</v>
       </c>
       <c r="P249" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q249">
         <v>5</v>
@@ -49336,7 +49339,7 @@
         <v>1.36</v>
       </c>
       <c r="AS251">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT251">
         <v>1.12</v>
@@ -49721,7 +49724,7 @@
         <v>2.63</v>
       </c>
       <c r="AT253">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU253">
         <v>1.65</v>
@@ -49822,7 +49825,7 @@
         <v>83</v>
       </c>
       <c r="P254" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -50013,7 +50016,7 @@
         <v>208</v>
       </c>
       <c r="P255" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50291,7 +50294,7 @@
         <v>0.92</v>
       </c>
       <c r="AS256">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT256">
         <v>0.82</v>
@@ -50777,7 +50780,7 @@
         <v>227</v>
       </c>
       <c r="P259" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -52114,7 +52117,7 @@
         <v>83</v>
       </c>
       <c r="P266" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q266">
         <v>5</v>
@@ -52395,7 +52398,7 @@
         <v>0.82</v>
       </c>
       <c r="AT267">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU267">
         <v>1.25</v>
@@ -52878,7 +52881,7 @@
         <v>232</v>
       </c>
       <c r="P270" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q270">
         <v>1</v>
@@ -53642,7 +53645,7 @@
         <v>83</v>
       </c>
       <c r="P274" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54215,7 +54218,7 @@
         <v>235</v>
       </c>
       <c r="P277" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q277">
         <v>4</v>
@@ -54597,7 +54600,7 @@
         <v>83</v>
       </c>
       <c r="P279" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -54788,7 +54791,7 @@
         <v>236</v>
       </c>
       <c r="P280" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q280">
         <v>0</v>
@@ -55361,7 +55364,7 @@
         <v>237</v>
       </c>
       <c r="P283" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q283">
         <v>6</v>
@@ -55830,7 +55833,7 @@
         <v>1.07</v>
       </c>
       <c r="AS285">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT285">
         <v>1.12</v>
@@ -55934,7 +55937,7 @@
         <v>83</v>
       </c>
       <c r="P286" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q286">
         <v>1</v>
@@ -56125,7 +56128,7 @@
         <v>239</v>
       </c>
       <c r="P287" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q287">
         <v>7</v>
@@ -56316,7 +56319,7 @@
         <v>83</v>
       </c>
       <c r="P288" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -56698,7 +56701,7 @@
         <v>83</v>
       </c>
       <c r="P290" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q290">
         <v>5</v>
@@ -57080,7 +57083,7 @@
         <v>240</v>
       </c>
       <c r="P292" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q292">
         <v>2</v>
@@ -57271,7 +57274,7 @@
         <v>241</v>
       </c>
       <c r="P293" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q293">
         <v>4</v>
@@ -57653,7 +57656,7 @@
         <v>242</v>
       </c>
       <c r="P295" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q295">
         <v>3</v>
@@ -57740,7 +57743,7 @@
         <v>1.44</v>
       </c>
       <c r="AS295">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AT295">
         <v>1.35</v>
@@ -57844,7 +57847,7 @@
         <v>243</v>
       </c>
       <c r="P296" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58035,7 +58038,7 @@
         <v>244</v>
       </c>
       <c r="P297" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58417,7 +58420,7 @@
         <v>245</v>
       </c>
       <c r="P299" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q299">
         <v>2</v>
@@ -58990,7 +58993,7 @@
         <v>247</v>
       </c>
       <c r="P302" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q302">
         <v>1</v>
@@ -59181,7 +59184,7 @@
         <v>248</v>
       </c>
       <c r="P303" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q303">
         <v>10</v>
@@ -59372,7 +59375,7 @@
         <v>249</v>
       </c>
       <c r="P304" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q304">
         <v>2</v>
@@ -59514,6 +59517,197 @@
       </c>
       <c r="BK304">
         <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:63">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>6686599</v>
+      </c>
+      <c r="C305" t="s">
+        <v>63</v>
+      </c>
+      <c r="D305" t="s">
+        <v>64</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45126.60416666666</v>
+      </c>
+      <c r="F305">
+        <v>33</v>
+      </c>
+      <c r="G305" t="s">
+        <v>76</v>
+      </c>
+      <c r="H305" t="s">
+        <v>72</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305">
+        <v>1</v>
+      </c>
+      <c r="N305">
+        <v>2</v>
+      </c>
+      <c r="O305" t="s">
+        <v>250</v>
+      </c>
+      <c r="P305" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q305">
+        <v>9</v>
+      </c>
+      <c r="R305">
+        <v>1</v>
+      </c>
+      <c r="S305">
+        <v>10</v>
+      </c>
+      <c r="T305">
+        <v>1.5</v>
+      </c>
+      <c r="U305">
+        <v>2.7</v>
+      </c>
+      <c r="V305">
+        <v>10.75</v>
+      </c>
+      <c r="W305">
+        <v>1.28</v>
+      </c>
+      <c r="X305">
+        <v>3.4</v>
+      </c>
+      <c r="Y305">
+        <v>2.3</v>
+      </c>
+      <c r="Z305">
+        <v>1.57</v>
+      </c>
+      <c r="AA305">
+        <v>5.25</v>
+      </c>
+      <c r="AB305">
+        <v>1.14</v>
+      </c>
+      <c r="AC305">
+        <v>1.11</v>
+      </c>
+      <c r="AD305">
+        <v>6.8</v>
+      </c>
+      <c r="AE305">
+        <v>14</v>
+      </c>
+      <c r="AF305">
+        <v>1.02</v>
+      </c>
+      <c r="AG305">
+        <v>16</v>
+      </c>
+      <c r="AH305">
+        <v>1.17</v>
+      </c>
+      <c r="AI305">
+        <v>4.75</v>
+      </c>
+      <c r="AJ305">
+        <v>1.57</v>
+      </c>
+      <c r="AK305">
+        <v>2.3</v>
+      </c>
+      <c r="AL305">
+        <v>2.6</v>
+      </c>
+      <c r="AM305">
+        <v>1.45</v>
+      </c>
+      <c r="AN305">
+        <v>1.01</v>
+      </c>
+      <c r="AO305">
+        <v>1.09</v>
+      </c>
+      <c r="AP305">
+        <v>5.75</v>
+      </c>
+      <c r="AQ305">
+        <v>2.5</v>
+      </c>
+      <c r="AR305">
+        <v>0.44</v>
+      </c>
+      <c r="AS305">
+        <v>2.41</v>
+      </c>
+      <c r="AT305">
+        <v>0.47</v>
+      </c>
+      <c r="AU305">
+        <v>1.77</v>
+      </c>
+      <c r="AV305">
+        <v>1.25</v>
+      </c>
+      <c r="AW305">
+        <v>3.02</v>
+      </c>
+      <c r="AX305">
+        <v>1.07</v>
+      </c>
+      <c r="AY305">
+        <v>15.25</v>
+      </c>
+      <c r="AZ305">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BA305">
+        <v>1.28</v>
+      </c>
+      <c r="BB305">
+        <v>1.59</v>
+      </c>
+      <c r="BC305">
+        <v>1.95</v>
+      </c>
+      <c r="BD305">
+        <v>2.43</v>
+      </c>
+      <c r="BE305">
+        <v>3.34</v>
+      </c>
+      <c r="BF305">
+        <v>6</v>
+      </c>
+      <c r="BG305">
+        <v>0</v>
+      </c>
+      <c r="BH305">
+        <v>15</v>
+      </c>
+      <c r="BI305">
+        <v>5</v>
+      </c>
+      <c r="BJ305">
+        <v>21</v>
+      </c>
+      <c r="BK305">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="359">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -769,6 +769,9 @@
     <t>['71']</t>
   </si>
   <si>
+    <t>['39', '77', '90+1']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -1449,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK305"/>
+  <dimension ref="A1:BK306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,7 +1696,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2075,7 +2078,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2356,7 +2359,7 @@
         <v>1.24</v>
       </c>
       <c r="AT5">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2457,7 +2460,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2839,7 +2842,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -3030,7 +3033,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3499,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT11">
         <v>1.41</v>
@@ -3603,7 +3606,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3985,7 +3988,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -6277,7 +6280,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6367,7 +6370,7 @@
         <v>0.82</v>
       </c>
       <c r="AT26">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6746,7 +6749,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT28">
         <v>0.59</v>
@@ -7232,7 +7235,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7614,7 +7617,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7996,7 +7999,7 @@
         <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8187,7 +8190,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -9142,7 +9145,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9420,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT42">
         <v>1.29</v>
@@ -9524,7 +9527,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9614,7 +9617,7 @@
         <v>1.24</v>
       </c>
       <c r="AT43">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU43">
         <v>1.83</v>
@@ -9715,7 +9718,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10097,7 +10100,7 @@
         <v>106</v>
       </c>
       <c r="P46" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10670,7 +10673,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10861,7 +10864,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11434,7 +11437,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -12007,7 +12010,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12198,7 +12201,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12771,7 +12774,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12962,7 +12965,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -13917,7 +13920,7 @@
         <v>83</v>
       </c>
       <c r="P66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14386,7 +14389,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT68">
         <v>0.88</v>
@@ -14490,7 +14493,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14872,7 +14875,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14962,7 +14965,7 @@
         <v>1.53</v>
       </c>
       <c r="AT71">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU71">
         <v>1.02</v>
@@ -15254,7 +15257,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16209,7 +16212,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16591,7 +16594,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17251,7 +17254,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT83">
         <v>1.06</v>
@@ -17546,7 +17549,7 @@
         <v>132</v>
       </c>
       <c r="P85" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17737,7 +17740,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17928,7 +17931,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18018,7 +18021,7 @@
         <v>1.35</v>
       </c>
       <c r="AT87">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU87">
         <v>1.71</v>
@@ -18119,7 +18122,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -18310,7 +18313,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18692,7 +18695,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -19074,7 +19077,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19265,7 +19268,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19647,7 +19650,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19838,7 +19841,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20602,7 +20605,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20692,7 +20695,7 @@
         <v>1.53</v>
       </c>
       <c r="AT101">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU101">
         <v>0.99</v>
@@ -21071,7 +21074,7 @@
         <v>1.6</v>
       </c>
       <c r="AS103">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT103">
         <v>0.71</v>
@@ -21175,7 +21178,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21939,7 +21942,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22130,7 +22133,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22321,7 +22324,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -23849,7 +23852,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24422,7 +24425,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24804,7 +24807,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25082,7 +25085,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT124">
         <v>0.9399999999999999</v>
@@ -25186,7 +25189,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25377,7 +25380,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25568,7 +25571,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25658,7 +25661,7 @@
         <v>2.18</v>
       </c>
       <c r="AT127">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25759,7 +25762,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -26714,7 +26717,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26905,7 +26908,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27096,7 +27099,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27478,7 +27481,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27669,7 +27672,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -28051,7 +28054,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -28242,7 +28245,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28624,7 +28627,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28711,7 +28714,7 @@
         <v>1.17</v>
       </c>
       <c r="AS143">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT143">
         <v>0.82</v>
@@ -28815,7 +28818,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -29006,7 +29009,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -29197,7 +29200,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29388,7 +29391,7 @@
         <v>169</v>
       </c>
       <c r="P147" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -30152,7 +30155,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30725,7 +30728,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31489,7 +31492,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31958,7 +31961,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT160">
         <v>1.12</v>
@@ -32062,7 +32065,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -32253,7 +32256,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32635,7 +32638,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -32725,7 +32728,7 @@
         <v>1.06</v>
       </c>
       <c r="AT164">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU164">
         <v>1.43</v>
@@ -33781,7 +33784,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33972,7 +33975,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -34354,7 +34357,7 @@
         <v>171</v>
       </c>
       <c r="P173" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -35205,7 +35208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT177">
         <v>1.35</v>
@@ -35500,7 +35503,7 @@
         <v>186</v>
       </c>
       <c r="P179" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -36455,7 +36458,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36646,7 +36649,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37410,7 +37413,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q189">
         <v>10</v>
@@ -38365,7 +38368,7 @@
         <v>92</v>
       </c>
       <c r="P194" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38747,7 +38750,7 @@
         <v>194</v>
       </c>
       <c r="P196" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q196">
         <v>11</v>
@@ -39511,7 +39514,7 @@
         <v>196</v>
       </c>
       <c r="P200" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39893,7 +39896,7 @@
         <v>198</v>
       </c>
       <c r="P202" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -40275,7 +40278,7 @@
         <v>199</v>
       </c>
       <c r="P204" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40466,7 +40469,7 @@
         <v>200</v>
       </c>
       <c r="P205" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -41421,7 +41424,7 @@
         <v>83</v>
       </c>
       <c r="P210" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q210">
         <v>7</v>
@@ -41612,7 +41615,7 @@
         <v>83</v>
       </c>
       <c r="P211" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -42376,7 +42379,7 @@
         <v>205</v>
       </c>
       <c r="P215" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42567,7 +42570,7 @@
         <v>83</v>
       </c>
       <c r="P216" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42657,7 +42660,7 @@
         <v>1.06</v>
       </c>
       <c r="AT216">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU216">
         <v>1.47</v>
@@ -42845,7 +42848,7 @@
         <v>1</v>
       </c>
       <c r="AS217">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT217">
         <v>1.24</v>
@@ -43713,7 +43716,7 @@
         <v>210</v>
       </c>
       <c r="P222" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -44286,7 +44289,7 @@
         <v>83</v>
       </c>
       <c r="P225" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44859,7 +44862,7 @@
         <v>83</v>
       </c>
       <c r="P228" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q228">
         <v>14</v>
@@ -45050,7 +45053,7 @@
         <v>97</v>
       </c>
       <c r="P229" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45241,7 +45244,7 @@
         <v>212</v>
       </c>
       <c r="P230" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45432,7 +45435,7 @@
         <v>213</v>
       </c>
       <c r="P231" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45623,7 +45626,7 @@
         <v>214</v>
       </c>
       <c r="P232" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -46092,7 +46095,7 @@
         <v>1.25</v>
       </c>
       <c r="AS234">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT234">
         <v>1.12</v>
@@ -46196,7 +46199,7 @@
         <v>216</v>
       </c>
       <c r="P235" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -46578,7 +46581,7 @@
         <v>133</v>
       </c>
       <c r="P237" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q237">
         <v>6</v>
@@ -46960,7 +46963,7 @@
         <v>83</v>
       </c>
       <c r="P239" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -47342,7 +47345,7 @@
         <v>218</v>
       </c>
       <c r="P241" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -48106,7 +48109,7 @@
         <v>83</v>
       </c>
       <c r="P245" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q245">
         <v>6</v>
@@ -48297,7 +48300,7 @@
         <v>108</v>
       </c>
       <c r="P246" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -48870,7 +48873,7 @@
         <v>87</v>
       </c>
       <c r="P249" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q249">
         <v>5</v>
@@ -49721,7 +49724,7 @@
         <v>0.43</v>
       </c>
       <c r="AS253">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT253">
         <v>0.47</v>
@@ -49825,7 +49828,7 @@
         <v>83</v>
       </c>
       <c r="P254" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -49915,7 +49918,7 @@
         <v>1.35</v>
       </c>
       <c r="AT254">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU254">
         <v>1.32</v>
@@ -50016,7 +50019,7 @@
         <v>208</v>
       </c>
       <c r="P255" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50780,7 +50783,7 @@
         <v>227</v>
       </c>
       <c r="P259" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -51631,7 +51634,7 @@
         <v>2.07</v>
       </c>
       <c r="AS263">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT263">
         <v>1.71</v>
@@ -52117,7 +52120,7 @@
         <v>83</v>
       </c>
       <c r="P266" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q266">
         <v>5</v>
@@ -52881,7 +52884,7 @@
         <v>232</v>
       </c>
       <c r="P270" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q270">
         <v>1</v>
@@ -53645,7 +53648,7 @@
         <v>83</v>
       </c>
       <c r="P274" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -53735,7 +53738,7 @@
         <v>1</v>
       </c>
       <c r="AT274">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU274">
         <v>1.06</v>
@@ -54218,7 +54221,7 @@
         <v>235</v>
       </c>
       <c r="P277" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q277">
         <v>4</v>
@@ -54305,7 +54308,7 @@
         <v>1.4</v>
       </c>
       <c r="AS277">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT277">
         <v>1.41</v>
@@ -54600,7 +54603,7 @@
         <v>83</v>
       </c>
       <c r="P279" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -54690,7 +54693,7 @@
         <v>1.71</v>
       </c>
       <c r="AT279">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU279">
         <v>1.39</v>
@@ -54791,7 +54794,7 @@
         <v>236</v>
       </c>
       <c r="P280" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q280">
         <v>0</v>
@@ -55364,7 +55367,7 @@
         <v>237</v>
       </c>
       <c r="P283" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q283">
         <v>6</v>
@@ -55645,7 +55648,7 @@
         <v>1.71</v>
       </c>
       <c r="AT284">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU284">
         <v>1.41</v>
@@ -55937,7 +55940,7 @@
         <v>83</v>
       </c>
       <c r="P286" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q286">
         <v>1</v>
@@ -56027,7 +56030,7 @@
         <v>1.47</v>
       </c>
       <c r="AT286">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU286">
         <v>1.51</v>
@@ -56128,7 +56131,7 @@
         <v>239</v>
       </c>
       <c r="P287" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q287">
         <v>7</v>
@@ -56319,7 +56322,7 @@
         <v>83</v>
       </c>
       <c r="P288" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -56701,7 +56704,7 @@
         <v>83</v>
       </c>
       <c r="P290" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q290">
         <v>5</v>
@@ -57083,7 +57086,7 @@
         <v>240</v>
       </c>
       <c r="P292" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q292">
         <v>2</v>
@@ -57274,7 +57277,7 @@
         <v>241</v>
       </c>
       <c r="P293" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q293">
         <v>4</v>
@@ -57656,7 +57659,7 @@
         <v>242</v>
       </c>
       <c r="P295" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q295">
         <v>3</v>
@@ -57847,7 +57850,7 @@
         <v>243</v>
       </c>
       <c r="P296" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58038,7 +58041,7 @@
         <v>244</v>
       </c>
       <c r="P297" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58420,7 +58423,7 @@
         <v>245</v>
       </c>
       <c r="P299" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q299">
         <v>2</v>
@@ -58507,7 +58510,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS299">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT299">
         <v>0.76</v>
@@ -58993,7 +58996,7 @@
         <v>247</v>
       </c>
       <c r="P302" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q302">
         <v>1</v>
@@ -59184,7 +59187,7 @@
         <v>248</v>
       </c>
       <c r="P303" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q303">
         <v>10</v>
@@ -59274,7 +59277,7 @@
         <v>1.29</v>
       </c>
       <c r="AT303">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AU303">
         <v>1.63</v>
@@ -59375,7 +59378,7 @@
         <v>249</v>
       </c>
       <c r="P304" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q304">
         <v>2</v>
@@ -59708,6 +59711,197 @@
       </c>
       <c r="BK305">
         <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:63">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>4407874</v>
+      </c>
+      <c r="C306" t="s">
+        <v>63</v>
+      </c>
+      <c r="D306" t="s">
+        <v>64</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45130.60416666666</v>
+      </c>
+      <c r="F306">
+        <v>28</v>
+      </c>
+      <c r="G306" t="s">
+        <v>74</v>
+      </c>
+      <c r="H306" t="s">
+        <v>76</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>3</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>3</v>
+      </c>
+      <c r="O306" t="s">
+        <v>251</v>
+      </c>
+      <c r="P306" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q306">
+        <v>4</v>
+      </c>
+      <c r="R306">
+        <v>9</v>
+      </c>
+      <c r="S306">
+        <v>13</v>
+      </c>
+      <c r="T306">
+        <v>3.96</v>
+      </c>
+      <c r="U306">
+        <v>2.31</v>
+      </c>
+      <c r="V306">
+        <v>2.66</v>
+      </c>
+      <c r="W306">
+        <v>1.34</v>
+      </c>
+      <c r="X306">
+        <v>3.21</v>
+      </c>
+      <c r="Y306">
+        <v>2.7</v>
+      </c>
+      <c r="Z306">
+        <v>1.45</v>
+      </c>
+      <c r="AA306">
+        <v>5.5</v>
+      </c>
+      <c r="AB306">
+        <v>1.13</v>
+      </c>
+      <c r="AC306">
+        <v>3.31</v>
+      </c>
+      <c r="AD306">
+        <v>3.3</v>
+      </c>
+      <c r="AE306">
+        <v>2</v>
+      </c>
+      <c r="AF306">
+        <v>1.02</v>
+      </c>
+      <c r="AG306">
+        <v>12</v>
+      </c>
+      <c r="AH306">
+        <v>1.25</v>
+      </c>
+      <c r="AI306">
+        <v>3.83</v>
+      </c>
+      <c r="AJ306">
+        <v>1.75</v>
+      </c>
+      <c r="AK306">
+        <v>1.96</v>
+      </c>
+      <c r="AL306">
+        <v>1.68</v>
+      </c>
+      <c r="AM306">
+        <v>2.13</v>
+      </c>
+      <c r="AN306">
+        <v>1.76</v>
+      </c>
+      <c r="AO306">
+        <v>1.3</v>
+      </c>
+      <c r="AP306">
+        <v>1.26</v>
+      </c>
+      <c r="AQ306">
+        <v>2.63</v>
+      </c>
+      <c r="AR306">
+        <v>2.73</v>
+      </c>
+      <c r="AS306">
+        <v>2.65</v>
+      </c>
+      <c r="AT306">
+        <v>2.56</v>
+      </c>
+      <c r="AU306">
+        <v>1.68</v>
+      </c>
+      <c r="AV306">
+        <v>1.85</v>
+      </c>
+      <c r="AW306">
+        <v>3.53</v>
+      </c>
+      <c r="AX306">
+        <v>2.13</v>
+      </c>
+      <c r="AY306">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ306">
+        <v>1.94</v>
+      </c>
+      <c r="BA306">
+        <v>1.36</v>
+      </c>
+      <c r="BB306">
+        <v>1.74</v>
+      </c>
+      <c r="BC306">
+        <v>2.15</v>
+      </c>
+      <c r="BD306">
+        <v>2.84</v>
+      </c>
+      <c r="BE306">
+        <v>0</v>
+      </c>
+      <c r="BF306">
+        <v>6</v>
+      </c>
+      <c r="BG306">
+        <v>3</v>
+      </c>
+      <c r="BH306">
+        <v>4</v>
+      </c>
+      <c r="BI306">
+        <v>7</v>
+      </c>
+      <c r="BJ306">
+        <v>10</v>
+      </c>
+      <c r="BK306">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="359">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1452,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK306"/>
+  <dimension ref="A1:BK307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT4">
         <v>0.82</v>
@@ -2359,7 +2359,7 @@
         <v>1.24</v>
       </c>
       <c r="AT5">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT21">
         <v>1.12</v>
@@ -6370,7 +6370,7 @@
         <v>0.82</v>
       </c>
       <c r="AT26">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -9041,7 +9041,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT40">
         <v>0.59</v>
@@ -9617,7 +9617,7 @@
         <v>1.24</v>
       </c>
       <c r="AT43">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU43">
         <v>1.83</v>
@@ -14965,7 +14965,7 @@
         <v>1.53</v>
       </c>
       <c r="AT71">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU71">
         <v>1.02</v>
@@ -15344,7 +15344,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT73">
         <v>1.29</v>
@@ -18021,7 +18021,7 @@
         <v>1.35</v>
       </c>
       <c r="AT87">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU87">
         <v>1.71</v>
@@ -18209,7 +18209,7 @@
         <v>0.6</v>
       </c>
       <c r="AS88">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT88">
         <v>0.88</v>
@@ -20695,7 +20695,7 @@
         <v>1.53</v>
       </c>
       <c r="AT101">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU101">
         <v>0.99</v>
@@ -21456,7 +21456,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT105">
         <v>1.06</v>
@@ -25276,7 +25276,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT125">
         <v>0.71</v>
@@ -25661,7 +25661,7 @@
         <v>2.18</v>
       </c>
       <c r="AT127">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -28141,7 +28141,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT140">
         <v>0.9399999999999999</v>
@@ -32728,7 +32728,7 @@
         <v>1.06</v>
       </c>
       <c r="AT164">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU164">
         <v>1.43</v>
@@ -33489,7 +33489,7 @@
         <v>1.56</v>
       </c>
       <c r="AS168">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT168">
         <v>1.65</v>
@@ -35781,7 +35781,7 @@
         <v>0.6</v>
       </c>
       <c r="AS180">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT180">
         <v>0.76</v>
@@ -38837,7 +38837,7 @@
         <v>1.45</v>
       </c>
       <c r="AS196">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT196">
         <v>1.35</v>
@@ -39792,7 +39792,7 @@
         <v>0.55</v>
       </c>
       <c r="AS201">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT201">
         <v>0.47</v>
@@ -42660,7 +42660,7 @@
         <v>1.06</v>
       </c>
       <c r="AT216">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU216">
         <v>1.47</v>
@@ -43803,7 +43803,7 @@
         <v>1.09</v>
       </c>
       <c r="AS222">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT222">
         <v>1.12</v>
@@ -46668,7 +46668,7 @@
         <v>1.08</v>
       </c>
       <c r="AS237">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT237">
         <v>1.24</v>
@@ -49918,7 +49918,7 @@
         <v>1.35</v>
       </c>
       <c r="AT254">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU254">
         <v>1.32</v>
@@ -53738,7 +53738,7 @@
         <v>1</v>
       </c>
       <c r="AT274">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU274">
         <v>1.06</v>
@@ -54117,7 +54117,7 @@
         <v>1.93</v>
       </c>
       <c r="AS276">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT276">
         <v>1.71</v>
@@ -54693,7 +54693,7 @@
         <v>1.71</v>
       </c>
       <c r="AT279">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU279">
         <v>1.39</v>
@@ -55648,7 +55648,7 @@
         <v>1.71</v>
       </c>
       <c r="AT284">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU284">
         <v>1.41</v>
@@ -56030,7 +56030,7 @@
         <v>1.47</v>
       </c>
       <c r="AT286">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU286">
         <v>1.51</v>
@@ -58892,7 +58892,7 @@
         <v>1.31</v>
       </c>
       <c r="AS301">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT301">
         <v>1.41</v>
@@ -59277,7 +59277,7 @@
         <v>1.29</v>
       </c>
       <c r="AT303">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU303">
         <v>1.63</v>
@@ -59850,7 +59850,7 @@
         <v>2.65</v>
       </c>
       <c r="AT306">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU306">
         <v>1.68</v>
@@ -59902,6 +59902,197 @@
       </c>
       <c r="BK306">
         <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:63">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>6206647</v>
+      </c>
+      <c r="C307" t="s">
+        <v>63</v>
+      </c>
+      <c r="D307" t="s">
+        <v>64</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45133.60416666666</v>
+      </c>
+      <c r="F307">
+        <v>30</v>
+      </c>
+      <c r="G307" t="s">
+        <v>67</v>
+      </c>
+      <c r="H307" t="s">
+        <v>76</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307">
+        <v>0</v>
+      </c>
+      <c r="O307" t="s">
+        <v>83</v>
+      </c>
+      <c r="P307" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q307">
+        <v>5</v>
+      </c>
+      <c r="R307">
+        <v>3</v>
+      </c>
+      <c r="S307">
+        <v>8</v>
+      </c>
+      <c r="T307">
+        <v>5.3</v>
+      </c>
+      <c r="U307">
+        <v>2.25</v>
+      </c>
+      <c r="V307">
+        <v>2.1</v>
+      </c>
+      <c r="W307">
+        <v>1.36</v>
+      </c>
+      <c r="X307">
+        <v>2.99</v>
+      </c>
+      <c r="Y307">
+        <v>2.7</v>
+      </c>
+      <c r="Z307">
+        <v>1.43</v>
+      </c>
+      <c r="AA307">
+        <v>6.6</v>
+      </c>
+      <c r="AB307">
+        <v>1.09</v>
+      </c>
+      <c r="AC307">
+        <v>3.3</v>
+      </c>
+      <c r="AD307">
+        <v>3.3</v>
+      </c>
+      <c r="AE307">
+        <v>1.95</v>
+      </c>
+      <c r="AF307">
+        <v>1.01</v>
+      </c>
+      <c r="AG307">
+        <v>11.75</v>
+      </c>
+      <c r="AH307">
+        <v>1.25</v>
+      </c>
+      <c r="AI307">
+        <v>3.72</v>
+      </c>
+      <c r="AJ307">
+        <v>1.73</v>
+      </c>
+      <c r="AK307">
+        <v>2</v>
+      </c>
+      <c r="AL307">
+        <v>1.82</v>
+      </c>
+      <c r="AM307">
+        <v>1.88</v>
+      </c>
+      <c r="AN307">
+        <v>2.29</v>
+      </c>
+      <c r="AO307">
+        <v>1.24</v>
+      </c>
+      <c r="AP307">
+        <v>1.15</v>
+      </c>
+      <c r="AQ307">
+        <v>1.44</v>
+      </c>
+      <c r="AR307">
+        <v>2.56</v>
+      </c>
+      <c r="AS307">
+        <v>1.41</v>
+      </c>
+      <c r="AT307">
+        <v>2.47</v>
+      </c>
+      <c r="AU307">
+        <v>1.54</v>
+      </c>
+      <c r="AV307">
+        <v>1.82</v>
+      </c>
+      <c r="AW307">
+        <v>3.36</v>
+      </c>
+      <c r="AX307">
+        <v>3</v>
+      </c>
+      <c r="AY307">
+        <v>9.1</v>
+      </c>
+      <c r="AZ307">
+        <v>1.51</v>
+      </c>
+      <c r="BA307">
+        <v>1.29</v>
+      </c>
+      <c r="BB307">
+        <v>1.64</v>
+      </c>
+      <c r="BC307">
+        <v>2.01</v>
+      </c>
+      <c r="BD307">
+        <v>2.53</v>
+      </c>
+      <c r="BE307">
+        <v>3.48</v>
+      </c>
+      <c r="BF307">
+        <v>4</v>
+      </c>
+      <c r="BG307">
+        <v>3</v>
+      </c>
+      <c r="BH307">
+        <v>3</v>
+      </c>
+      <c r="BI307">
+        <v>9</v>
+      </c>
+      <c r="BJ307">
+        <v>7</v>
+      </c>
+      <c r="BK307">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
